--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>敏捷便鞋</t>
+  </si>
+  <si>
+    <t>Des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量[color=#FFFF00]+3[/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷[color=#FFFF00]+3[/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -400,20 +412,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="39.75" customWidth="1"/>
     <col min="3" max="3" width="29.625" customWidth="1"/>
-    <col min="4" max="4" width="36.875" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,8 +439,11 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -440,8 +456,11 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -453,6 +472,9 @@
       </c>
       <c r="D3" t="s">
         <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="196">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,11 +58,807 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>力量[color=#FFFF00]+3[/color]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敏捷[color=#FFFF00]+3[/color]</t>
+    <t>+[color=#D8D8D8] 3 [/color]力量</t>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 3 [/color]敏捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/智力斗篷 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力斗篷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/智力斗篷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 3 [/color]智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/圆环 (1)</t>
+  </si>
+  <si>
+    <t>Item/Icon/圆环 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/圆环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 2 [/color]所有属性</t>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 2 [/color]所有属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/力量腰带 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/力量腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 6 [/color]力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/精灵布带 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵布带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 6 [/color]敏捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 6 [/color]智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/法师长袍 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师长袍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/法师长袍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/精灵布带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 10 [/color]力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 10 [/color]敏捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 10 [/color]智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/食人魔之斧 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食人魔之斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/食人魔之斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢欣之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/欢欣之刃 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/欢欣之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/魔力法杖 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/守护指环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/守护指环 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护指环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 2 [/color]护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/圆盾 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/圆盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淬毒之珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/淬毒之珠 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/淬毒之珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/攻击之爪 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/攻击之爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击之爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 9 [/color]攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁子甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/锁子甲 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/锁子甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 5 [/color]护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/短棍 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/短棍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短棍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁意头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/铁意头盔 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/铁意头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阔剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/阔剑 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/阔剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 18 [/color]攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/大剑 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/大剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 21 [/color]攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/标枪 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/标枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘银锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/秘银锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 24 [/color]攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贤者面罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/贤者面罩 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/贤者面罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 0.75 [/color]魔法恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/回复戒指 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/回复戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 2 [/color]生命恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度之靴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/速度之靴 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/速度之靴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 15% [/color]移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速手套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/加速手套 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/加速手套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 20 [/color]攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗魔斗篷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/抗魔斗篷 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/抗魔斗篷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/秘银锤 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/魔力法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗指环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/治疗指环 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/治疗指环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 5 [/color]生命恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚无宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/虚无宝石 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/虚无宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 1.75 [/color]魔法恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血面具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/吸血面具 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/吸血面具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽魂权杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/幽魂权杖 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/幽魂权杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪烁匕首</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/闪烁匕首 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/闪烁匕首</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 10 [/color]攻击力
++[color=#D8D8D8] 10 [/color]攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 5 [/color]护甲
++[color=#D8D8D8] 4.5 [/color]生命恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#D8D8D8]被动:吸血 [/color]
+攻击敌人时恢复造成伤害15%的血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#D8D8D8]被动:穿刺 [/color]
+有25%的几率无视闪避,并造成100点魔法伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#D8D8D8]被动:毒性攻击 [/color]
+使目标中毒,持续3秒,每秒造成5点伤害,移动速度降低7%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#D8D8D8]被动:伤害格挡 [/color]
+有50%的几率格挡伤害,近战英雄格挡20点伤害,远程英雄格挡9点伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 15% [/color]魔法抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/怨灵系带 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/怨灵系带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/空灵挂件 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/空灵挂件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 3 [/color]力量
++[color=#D8D8D8] 3 [/color]敏捷
++[color=#D8D8D8] 6 [/color]智力
++[color=#D8D8D8] 3% [/color]技能增强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 6 [/color]力量
++[color=#D8D8D8] 3 [/color]敏捷
++[color=#D8D8D8] 3 [/color]智力
++[color=#D8D8D8] 6% [/color]魔法抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/护腕 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相位鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/相位鞋 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/相位鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 5 [/color]所有属性
+[color=#D8D8D8]主动:幽灵形态 [/color]
+持续4秒,期间不会受到普通伤害,也不能攻击。会受到额外40%的魔法伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/动力鞋 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/动力鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 15% [/color]移动速度
++[color=#D8D8D8] 10 [/color]主属性
++[color=#D8D8D8] 20 [/color]攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空明杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/空明杖 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/空明杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 10 [/color]智力
++[color=#D8D8D8] 10 [/color]攻击速度
++[color=#D8D8D8] 10 [/color]攻击力
++[color=#D8D8D8] 1.25 [/color]魔法恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚韧球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/坚韧球 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/坚韧球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 6 [/color]生命恢复
++[color=#D8D8D8] 2 [/color]魔法恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者之戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/王者之戒 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/王者之戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复头巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/恢复头巾 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/恢复头巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#D8D8D8]主动:闪烁 [/color]
+传送到最远12米的距离,受到攻击后3秒内无法使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 7 [/color]攻击力
++[color=#D8D8D8] 2 [/color]护甲
++[color=#D8D8D8] 0.75 [/color]魔法恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 2 [/color]所有属性
+[color=#D8D8D8]被动:恢复光环 [/color]
+提升12米范围内的友方单位2点/秒生命恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/玄冥盾牌 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/玄冥盾牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄冥盾牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 2 [/color]所有属性
++[color=#D8D8D8] 5 [/color]护甲
+[color=#D8D8D8]主动:防御提升 [/color]
+为所有12米范围内的友方单位提升2点护甲,持续30秒。
+CD:30   耗蓝:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇气勋章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/勇气勋章 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/勇气勋章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 0.75 [/color]魔法恢复
++[color=#D8D8D8] 7 [/color]护甲
+[color=#D8D8D8]主动:无畏 [/color]
+降低自身7点护甲,提升友方7点护甲,降低敌方7点护甲
+施法距离:10   CD:7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥术鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/奥术鞋 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/奥术鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 15% [/color]移动速度
++[color=#D8D8D8] 250 [/color]魔法
+[color=#D8D8D8]主动:补魔 [/color]
+立即恢复12米内的友方单位160魔法
+CD:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧鼓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/韧鼓 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/韧鼓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 6 [/color]所有属性
++[color=#D8D8D8] 1.25 [/color]魔法恢复
++[color=#D8D8D8] 0.2 [/color]移动速度
+[color=#D8D8D8]主动:坚韧 [/color]
+为12米内的友方单位提供35点攻击速度和+13%的移动速度
+CD:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/弗拉迪米尔的祭品 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/弗拉迪米尔的祭品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗拉迪米尔的祭品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#D8D8D8]被动:弗拉迪米尔光环 [/color]
+为12米内的友方单位提供吸血，1.5点/秒的魔法恢复速度,15%额外攻击力,4点护甲。
+吸血效果近战15%,远程10%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅肯斯姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/梅肯斯姆 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/梅肯斯姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 5 [/color]所有属性
++[color=#D8D8D8] 5 [/color]护甲
++[color=#D8D8D8] 0.2 [/color]移动速度
+[color=#D8D8D8]主动:回复 [/color]
+为12米内的友方单位回复275点生命值
+CD:65    耗蓝:225
+[color=#D8D8D8]被动:梅肯斯姆光环 [/color]
+为12米内的友方单位提供2点护甲,3.5点/每秒的生命恢复速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞察烟斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/洞察烟斗 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/洞察烟斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 8 [/color]生命回复
++[color=#D8D8D8] 30% [/color]魔法抗性
++[color=#D8D8D8] 2 [/color]所有属性
+[color=#D8D8D8]主动:魔法护盾 [/color]
+为12米内的友方单位套上能抵挡400点魔法伤害的护盾，持续12秒
+CD:60    耗蓝:100
+[color=#D8D8D8]被动:洞察光环 [/color]
+为12米内的友方单位提供生命恢复2点,和10%的魔法抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 3 [/color]力量
++[color=#D8D8D8] 6 [/color]敏捷
++[color=#D8D8D8] 3 [/color]智力
++[color=#D8D8D8] 5 [/color]攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怨灵系带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空灵挂件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 15% [/color]移动速度
++[color=#D8D8D8] 18 [/color]攻击力(近战)
++[color=#D8D8D8] 12 [/color]攻击力(远程)
++[color=#D8D8D8] 6 [/color]护甲
+[color=#D8D8D8]主动:相位移动 [/color]
+持续3秒,可以穿越单位,近战提升22%移动速度,远程提升10%移动速度。
+CD:8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,8 +902,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -412,18 +1212,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="39.75" customWidth="1"/>
     <col min="3" max="3" width="29.625" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="37.5" customWidth="1"/>
+    <col min="4" max="4" width="24.375" customWidth="1"/>
+    <col min="5" max="5" width="115.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -456,7 +1256,7 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -473,8 +1273,1096 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" t="s">
+        <v>193</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" t="s">
+        <v>172</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" t="s">
+        <v>176</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" t="s">
+        <v>189</v>
+      </c>
+      <c r="D48" t="s">
+        <v>188</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="232">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -697,10 +697,6 @@
   </si>
   <si>
     <t>ui://GameUI/玄冥盾牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄冥盾牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -709,10 +705,6 @@
 [color=#D8D8D8]主动:防御提升 [/color]
 为所有12米范围内的友方单位提升2点护甲,持续30秒。
 CD:30   耗蓝:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勇气勋章</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -800,17 +792,6 @@
   </si>
   <si>
     <t>ui://GameUI/梅肯斯姆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 5 [/color]所有属性
-+[color=#D8D8D8] 5 [/color]护甲
-+[color=#D8D8D8] 0.2 [/color]移动速度
-[color=#D8D8D8]主动:回复 [/color]
-为12米内的友方单位回复275点生命值
-CD:65    耗蓝:225
-[color=#D8D8D8]被动:梅肯斯姆光环 [/color]
-为12米内的友方单位提供2点护甲,3.5点/每秒的生命恢复速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -859,6 +840,223 @@
 [color=#D8D8D8]主动:相位移动 [/color]
 持续3秒,可以穿越单位,近战提升22%移动速度,远程提升10%移动速度。
 CD:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄冥盾牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇气勋章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 5 [/color]所有属性
++[color=#D8D8D8] 5 [/color]护甲
+[color=#D8D8D8]主动:回复 [/color]
+为12米内的友方单位回复275点生命值
+CD:65    耗蓝:225
+[color=#D8D8D8]被动:梅肯斯姆光环 [/color]
+为12米内的友方单位提供2点护甲,3.5点/每秒的生命恢复速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原力法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/原力法杖 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/原力法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 10 [/color]智力
++[color=#D8D8D8] 2.5 [/color]生命恢复
+[color=#D8D8D8]主动:原力 [/color]
+将目标单位向前推进6米
+CD:23    耗蓝:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纷争面纱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/纷争面纱 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/纷争面纱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 6 [/color]生命恢复
++[color=#D8D8D8] 6 [/color]护甲
++[color=#D8D8D8] 6 [/color]敏捷
++[color=#D8D8D8] 6 [/color]力量
++[color=#D8D8D8] 15 [/color]智力
+[color=#D8D8D8]主动:魔法虚弱 [/color]
+使6米范围内的敌人魔法抗性降低25%
+CD:20    耗蓝:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达贡之神力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/达贡之神力 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/达贡之神力 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/EUL的神圣法杖 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/EUL的神圣法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿托斯之棍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/阿托斯之棍 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/阿托斯之棍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUL的神圣法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 5 [/color]敏捷
++[color=#D8D8D8] 5 [/color]力量
++[color=#D8D8D8] 13 [/color]智力
+[color=#D8D8D8]主动:能量冲击 [/color]
+对目标造成400点魔法伤害
+施法距离:6米
+CD:35    耗蓝:120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 20 [/color]移动速度
++[color=#D8D8D8] 5 [/color]魔法恢复
++[color=#D8D8D8] 10 [/color]智力
+[color=#D8D8D8]主动:龙卷风 [/color]
+使目标卷入龙卷风中2.5秒,并处于无敌状态,落地后敌方将受到50点魔法伤害
+施法距离:5.75米
+驱散类型:弱驱散
+CD:23    耗蓝:175</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 20 [/color]智力
++[color=#D8D8D8] 10 [/color]力量
++[color=#D8D8D8] 10 [/color]敏捷
+[color=#D8D8D8]主动:致残 [/color]
+缠绕目标2秒
+施法距离:11.5米
+驱散类型:弱驱散
+CD:18    耗蓝:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿哈利姆神杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/阿哈利姆神杖 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/阿哈利姆神杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 10 [/color]智力
++[color=#D8D8D8] 10 [/color]力量
++[color=#D8D8D8] 10 [/color]敏捷
++[color=#D8D8D8] 175 [/color]生命值
++[color=#D8D8D8] 175 [/color]魔法值
+[color=#D8D8D8]被动:终极技能 [/color]
+提升英雄的终极技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/紫怨 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫怨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/紫怨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 25 [/color]智力
++[color=#D8D8D8] 30 [/color]攻击速度
++[color=#D8D8D8] 30 [/color]攻击力
++[color=#D8D8D8] 5.5 [/color]魔法恢复
+[color=#D8D8D8]主动:灵魂燃烧 [/color]
+沉默目标5秒,沉默结束后受到的伤害的30%将以额外魔法伤害的形式结算
+施法距离:9米
+CD:18    耗蓝:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/刷新球 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/刷新球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 13 [/color]生命恢复
++[color=#D8D8D8] 12 [/color]魔法恢复
+[color=#D8D8D8]主动:完全重置 [/color]
+重置所有物品和技能的CD
+CD:195    耗蓝:375</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪恶镰刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/邪恶镰刀 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/邪恶镰刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 10 [/color]力量
++[color=#D8D8D8] 10 [/color]敏捷
++[color=#D8D8D8] 35 [/color]智力
++[color=#D8D8D8] 9 [/color]魔法恢复
+[color=#D8D8D8]主动:妖术 [/color]
+将目标变为小动物减速50%,并禁止使用技能,道具和攻击
+施法距离:8米
+CD:22    耗蓝:250</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1214,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1781,10 +1979,10 @@
         <v>130</v>
       </c>
       <c r="D33" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -1798,7 +1996,7 @@
         <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>134</v>
@@ -1835,7 +2033,7 @@
         <v>139</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -1934,10 +2132,10 @@
         <v>164</v>
       </c>
       <c r="D42" t="s">
+        <v>193</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -1945,16 +2143,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C43" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="D43" t="s">
-        <v>168</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -1962,16 +2160,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C44" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="D44" t="s">
-        <v>172</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="81" x14ac:dyDescent="0.15">
@@ -1979,16 +2177,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C45" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="D45" t="s">
-        <v>176</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -1996,33 +2194,33 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" t="s">
+        <v>178</v>
+      </c>
+      <c r="D46" t="s">
+        <v>180</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C46" t="s">
-        <v>180</v>
-      </c>
-      <c r="D46" t="s">
-        <v>182</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C47" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D47" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -2030,169 +2228,169 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C48" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D48" t="s">
+        <v>185</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+        <v>196</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>206</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>205</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>207</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+        <v>209</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+        <v>216</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+        <v>221</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>225</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>224</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+        <v>226</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>229</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>21</v>
+        <v>228</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">

--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -893,26 +893,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+[color=#D8D8D8] 6 [/color]生命恢复
-+[color=#D8D8D8] 6 [/color]护甲
-+[color=#D8D8D8] 6 [/color]敏捷
-+[color=#D8D8D8] 6 [/color]力量
-+[color=#D8D8D8] 15 [/color]智力
-[color=#D8D8D8]主动:魔法虚弱 [/color]
-使6米范围内的敌人魔法抗性降低25%
-CD:20    耗蓝:50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>达贡之神力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Item/Icon/达贡之神力 (1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/达贡之神力 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -947,17 +932,6 @@
 对目标造成400点魔法伤害
 施法距离:6米
 CD:35    耗蓝:120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 20 [/color]移动速度
-+[color=#D8D8D8] 5 [/color]魔法恢复
-+[color=#D8D8D8] 10 [/color]智力
-[color=#D8D8D8]主动:龙卷风 [/color]
-使目标卷入龙卷风中2.5秒,并处于无敌状态,落地后敌方将受到50点魔法伤害
-施法距离:5.75米
-驱散类型:弱驱散
-CD:23    耗蓝:175</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1006,46 +980,73 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Item/Icon/刷新球 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/刷新球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 13 [/color]生命恢复
++[color=#D8D8D8] 12 [/color]魔法恢复
+[color=#D8D8D8]主动:完全重置 [/color]
+重置所有物品和技能的CD
+CD:195    耗蓝:375</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪恶镰刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/邪恶镰刀 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/邪恶镰刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 6 [/color]生命恢复
++[color=#D8D8D8] 6 [/color]护甲
++[color=#D8D8D8] 6 [/color]敏捷
++[color=#D8D8D8] 6 [/color]力量
++[color=#D8D8D8] 15 [/color]智力
+[color=#D8D8D8]主动:魔法虚弱 [/color]
+使6米范围内的敌人魔法抗性降低25%
+施法距离:10米   持续时间:16秒
+CD:20    耗蓝:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/达贡之神力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 0.2 [/color]移动速度
++[color=#D8D8D8] 5 [/color]魔法恢复
++[color=#D8D8D8] 10 [/color]智力
+[color=#D8D8D8]主动:龙卷风 [/color]
+使目标卷入龙卷风中2.5秒,并处于无敌状态,落地后敌方将受到50点魔法伤害
+施法距离:5.75米
+驱散类型:弱驱散
+CD:23    耗蓝:175</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>+[color=#D8D8D8] 25 [/color]智力
 +[color=#D8D8D8] 30 [/color]攻击速度
 +[color=#D8D8D8] 30 [/color]攻击力
 +[color=#D8D8D8] 5.5 [/color]魔法恢复
 [color=#D8D8D8]主动:灵魂燃烧 [/color]
-沉默目标5秒,沉默结束后受到的伤害的30%将以额外魔法伤害的形式结算
+沉默目标5秒,伤害加深30%
 施法距离:9米
 CD:18    耗蓝:100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item/Icon/刷新球 (1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/刷新球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 13 [/color]生命恢复
-+[color=#D8D8D8] 12 [/color]魔法恢复
-[color=#D8D8D8]主动:完全重置 [/color]
-重置所有物品和技能的CD
-CD:195    耗蓝:375</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪恶镰刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item/Icon/邪恶镰刀 (1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/邪恶镰刀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1054,7 +1055,7 @@
 +[color=#D8D8D8] 35 [/color]智力
 +[color=#D8D8D8] 9 [/color]魔法恢复
 [color=#D8D8D8]主动:妖术 [/color]
-将目标变为小动物减速50%,并禁止使用技能,道具和攻击
+将目标变为小动物减速70%,并禁止使用技能,道具和攻击,持续3.5秒
 施法距离:8米
 CD:22    耗蓝:250</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1412,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2257,7 +2258,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2271,7 +2272,7 @@
         <v>200</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -2279,16 +2280,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -2296,16 +2297,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C52" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D52" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -2313,16 +2314,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C53" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D53" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -2330,16 +2331,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C54" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D54" t="s">
+        <v>213</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -2347,16 +2348,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C55" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D55" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -2364,16 +2365,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C56" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D56" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -2381,13 +2382,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C57" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D57" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>231</v>

--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="308">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,11 +525,6 @@
   <si>
     <t>[color=#D8D8D8]被动:毒性攻击 [/color]
 使目标中毒,持续3秒,每秒造成5点伤害,移动速度降低7%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[color=#D8D8D8]被动:伤害格挡 [/color]
-有50%的几率格挡伤害,近战英雄格挡20点伤害,远程英雄格挡9点伤害。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1058,6 +1053,406 @@
 将目标变为小动物减速70%,并禁止使用技能,道具和攻击,持续3.5秒
 施法距离:8米
 CD:22    耗蓝:250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/水晶剑 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/水晶剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 38 [/color]攻击力
+[color=#D8D8D8]被动:致命一击 [/color]
+攻击时有20%的几率造成175%的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎颅锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/碎颅锤 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/碎颅锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂战斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/狂战斧 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/狂战斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 45 [/color]攻击力
++[color=#D8D8D8] 7.5 [/color]生命恢复
++[color=#D8D8D8] 3.75 [/color]魔法恢复
+[color=#D8D8D8]被动:分裂 [/color]
+普通攻击时对目标周围最远6.5米的雏形范围内敌人造成60%的物理伤害
+仅近战有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚灵之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/虚灵之刃 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/虚灵之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/金箍棒 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/金箍棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金箍棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 52 [/color]攻击力
++[color=#D8D8D8] 10 [/color]攻击速度
+[color=#D8D8D8]被动:穿刺 [/color]
+每次攻击有75%的概率无视闪避,并造成100点魔法伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代达罗斯之殇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/代达罗斯之殇 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/代达罗斯之殇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 80 [/color]攻击力
+[color=#D8D8D8]被动:致命一击 [/color]
+攻击时有30%的几率造成235%的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝴蝶剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/蝴蝶剑 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/蝴蝶剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 35 [/color]敏捷
++[color=#D8D8D8] 25 [/color]攻击力
++[color=#D8D8D8] 30 [/color]攻击速度
++[color=#D8D8D8] 35% [/color]闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/深渊之刃 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/深渊之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#D8D8D8]被动:伤害格挡 [/color]
+有50%的几率格挡伤害,近战英雄格挡20点伤害,远程英雄格挡9点伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战头巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/挑战头巾 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/挑战头巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 8 [/color]生命恢复
++[color=#D8D8D8] 25 [/color]魔法抗性
+[color=#D8D8D8]被动:绝缘 [/color]
+创造一个能吸收325点魔法伤害的护盾,持续12秒。
+CD:60    耗蓝:75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刃甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/刃甲 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/刃甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 22 [/color]攻击力
++[color=#D8D8D8] 5 [/color]护甲
++[color=#D8D8D8] 10 [/color]智力
+[color=#D8D8D8]主动:反弹伤害 [/color]
+反弹所有受到的伤害,持续4.5秒
+CD:25    耗蓝:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先锋盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/先锋盾 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/先锋盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 25 [/color]攻击力
++[color=#D8D8D8] 10 [/color]力量
++[color=#D8D8D8] 250 [/color]生命值
++[color=#D8D8D8] 10 [/color]生命恢复
+[color=#D8D8D8]被动:重击 [/color]
+近战英雄攻击时有20%的几率击晕目标1.5秒,并造成100点额外伤害,远程英雄击晕概率为10%
+CD:2.3秒
+[color=#D8D8D8]被动:伤害格挡 [/color]
+有50%的几率格挡伤害,近战英雄格挡70点伤害,远程英雄格挡35点伤害。
+[color=#D8D8D8]主动:强击 [/color]
+击晕一个目标,持续2秒
+施法距离:2米
+CD:35   耗蓝:75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 250 [/color]生命值
++[color=#D8D8D8] 7 [/color]生命恢复
+[color=#D8D8D8]被动:伤害格挡 [/color]
+有50%的几率格挡伤害,近战英雄格挡70点伤害,远程英雄格挡35点伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振魂石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/振魂石 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/振魂石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 425 [/color]生命值
++[color=#D8D8D8] 425 [/color]魔法值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑皇杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/黑皇杖 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/黑皇杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/西瓦的守护 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/西瓦的守护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 30 [/color]智力
++[color=#D8D8D8] 15 [/color]护甲
+[color=#D8D8D8]主动:极寒冲击 [/color]
+对9米内的敌人造成200点魔法伤害,并减速40%,持续4秒。
+CD：30    耗蓝:100
+[color=#D8D8D8]被动:霜冷光环 [/color]
+降低12米内的敌人45点攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 10 [/color]力量
++[color=#D8D8D8] 24 [/color]攻击力
+[color=#D8D8D8]主动:天神下凡 [/color]
+获得技能免疫和100%的魔法抗性,持续8秒。
+CD：70
+弱驱散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻影斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/幻影斧 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/幻影斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血精石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/血精石 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/血精石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 475 [/color]生命值
++[color=#D8D8D8] 425 [/color]魔法值
++[color=#D8D8D8] 10 [/color]生命恢复
++[color=#D8D8D8] 7 [/color]魔法恢复
++[color=#D8D8D8] 200% [/color]魔法恢复速度
+[color=#D8D8D8]主动:血之契约 [/color]
+立即恢复最大魔法值20%的生命值
+CD：250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林肯法球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/林肯法球 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/林肯法球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 13 [/color]所有属性
++[color=#D8D8D8] 6.5 [/color]生命恢复
++[color=#D8D8D8] 5 [/color]魔法恢复
+[color=#D8D8D8]被动:法术抵抗 [/color]
+抵挡一次大部分指向性法术
+CD：13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强袭胸甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/强袭胸甲 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/强袭胸甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 30 [/color]攻击速度
++[color=#D8D8D8] 10 [/color]护甲
+[color=#D8D8D8]被动:强袭光环 [/color]
+12米内的友方单位提升25点攻击速度和5点护甲,敌方单位削弱5点护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/恐鳌之心 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/恐鳌之心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐鳌之心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 45 [/color]力量
++[color=#D8D8D8] 400 [/color]生命值
++[color=#D8D8D8] 50% [/color]生命恢复增强
+[color=#D8D8D8]被动:生命恢复 [/color]
+每秒恢复最大生命值的5%。
+受到攻击的7秒内将失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 25 [/color]攻击力
++[color=#D8D8D8] 10 [/color]力量
+[color=#D8D8D8]被动:重击 [/color]
+近战英雄攻击时有25%的几率击晕目标1.5秒,并造成100点额外伤害,远程英雄击晕概率为10%
+CD:2.3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 40 [/color]敏捷
++[color=#D8D8D8] 10 [/color]力量
++[color=#D8D8D8] 10 [/color]智力
+[color=#D8D8D8]主动:虚化冲击 [/color]
+将目标变为虚化状态,受到魔法伤害增加40%,并且不能攻击和被攻击。持续4秒。
+如果目标为敌人则造成400的魔法伤害，并减速80%。
+施法距离:8米
+CD:20   耗蓝:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深渊之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓦的守护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 10 [/color]力量
++[color=#D8D8D8] 26 [/color]敏捷
++[color=#D8D8D8] 10 [/color]智力
++[color=#D8D8D8] 12 [/color]攻击速度
++[color=#D8D8D8] 20 [/color]移动速度
+[color=#D8D8D8]主动:镜像 [/color]
+制造2个幻象,持续20秒
+继承30%攻击力,受到350%的伤害
+CD：45    耗蓝:125
+弱驱散</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1411,10 +1806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1643,7 +2038,7 @@
         <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>128</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -1881,7 +2276,7 @@
         <v>99</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -1949,7 +2344,7 @@
         <v>115</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -1966,7 +2361,7 @@
         <v>118</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -1974,16 +2369,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -1991,16 +2386,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" t="s">
-        <v>191</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -2008,16 +2403,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -2025,16 +2420,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -2042,16 +2437,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C37" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" t="s">
-        <v>143</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -2059,16 +2454,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C38" t="s">
-        <v>148</v>
-      </c>
-      <c r="D38" t="s">
-        <v>147</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -2076,16 +2471,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C39" t="s">
-        <v>152</v>
-      </c>
-      <c r="D39" t="s">
-        <v>151</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -2093,16 +2488,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -2110,16 +2505,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -2127,16 +2522,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" t="s">
+        <v>192</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C42" t="s">
-        <v>164</v>
-      </c>
-      <c r="D42" t="s">
-        <v>193</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -2144,16 +2539,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" t="s">
+        <v>193</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C43" t="s">
-        <v>167</v>
-      </c>
-      <c r="D43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -2161,16 +2556,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" t="s">
+        <v>169</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C44" t="s">
-        <v>171</v>
-      </c>
-      <c r="D44" t="s">
-        <v>170</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="81" x14ac:dyDescent="0.15">
@@ -2178,16 +2573,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" t="s">
+        <v>174</v>
+      </c>
+      <c r="D45" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C45" t="s">
-        <v>175</v>
-      </c>
-      <c r="D45" t="s">
-        <v>174</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -2195,16 +2590,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" t="s">
         <v>179</v>
       </c>
-      <c r="C46" t="s">
-        <v>178</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -2212,16 +2607,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C47" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -2229,16 +2624,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>186</v>
+      </c>
+      <c r="C48" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48" t="s">
+        <v>184</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C48" t="s">
-        <v>186</v>
-      </c>
-      <c r="D48" t="s">
-        <v>185</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -2246,16 +2641,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>197</v>
+      </c>
+      <c r="C49" t="s">
+        <v>196</v>
+      </c>
+      <c r="D49" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C49" t="s">
-        <v>197</v>
-      </c>
-      <c r="D49" t="s">
-        <v>196</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
@@ -2263,16 +2658,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -2280,16 +2675,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -2297,16 +2692,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -2314,16 +2709,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C53" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D53" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -2331,16 +2726,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>214</v>
+      </c>
+      <c r="C54" t="s">
+        <v>213</v>
+      </c>
+      <c r="D54" t="s">
+        <v>212</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="C54" t="s">
-        <v>214</v>
-      </c>
-      <c r="D54" t="s">
-        <v>213</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -2348,16 +2743,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C55" t="s">
+        <v>216</v>
+      </c>
+      <c r="D55" t="s">
         <v>217</v>
       </c>
-      <c r="D55" t="s">
-        <v>218</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -2365,16 +2760,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>220</v>
+      </c>
+      <c r="C56" t="s">
+        <v>219</v>
+      </c>
+      <c r="D56" t="s">
         <v>221</v>
       </c>
-      <c r="C56" t="s">
-        <v>220</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E56" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -2382,185 +2777,440 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>232</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>236</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>239</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+        <v>238</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+        <v>242</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+        <v>247</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>254</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>258</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>257</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+        <v>305</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>262</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>261</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+        <v>260</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>266</v>
+      </c>
+      <c r="C67" t="s">
+        <v>265</v>
+      </c>
+      <c r="D67" t="s">
+        <v>264</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>270</v>
+      </c>
+      <c r="C68" t="s">
+        <v>269</v>
+      </c>
+      <c r="D68" t="s">
+        <v>268</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>275</v>
+      </c>
+      <c r="C69" t="s">
+        <v>274</v>
+      </c>
+      <c r="D69" t="s">
+        <v>273</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>279</v>
+      </c>
+      <c r="C70" t="s">
+        <v>278</v>
+      </c>
+      <c r="D70" t="s">
+        <v>277</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>281</v>
+      </c>
+      <c r="C71" t="s">
+        <v>280</v>
+      </c>
+      <c r="D71" t="s">
+        <v>306</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="135" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>286</v>
+      </c>
+      <c r="C72" t="s">
+        <v>285</v>
+      </c>
+      <c r="D72" t="s">
+        <v>284</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>289</v>
+      </c>
+      <c r="C73" t="s">
+        <v>288</v>
+      </c>
+      <c r="D73" t="s">
+        <v>287</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>293</v>
+      </c>
+      <c r="C74" t="s">
+        <v>292</v>
+      </c>
+      <c r="D74" t="s">
+        <v>291</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>297</v>
+      </c>
+      <c r="C75" t="s">
+        <v>296</v>
+      </c>
+      <c r="D75" t="s">
+        <v>295</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>300</v>
+      </c>
+      <c r="C76" t="s">
+        <v>299</v>
+      </c>
+      <c r="D76" t="s">
+        <v>301</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
         <v>20</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C77" t="s">
         <v>17</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D77" t="s">
         <v>19</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E77" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="393">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,21 +82,11 @@
   </si>
   <si>
     <t>Item/Icon/圆环 (1)</t>
-  </si>
-  <si>
-    <t>Item/Icon/圆环 (1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圆环</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ui://GameUI/圆环</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 2 [/color]所有属性</t>
   </si>
   <si>
     <t>+[color=#D8D8D8] 2 [/color]所有属性</t>
@@ -1453,6 +1443,404 @@
 继承30%攻击力,受到350%的伤害
 CD：45    耗蓝:125
 弱驱散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂面具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/疯狂面具 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/疯狂面具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/散华 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/散华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 10 [/color]攻击力
++[color=#D8D8D8] 10 [/color]攻击速度
+[color=#D8D8D8]被动:吸血 [/color]
+每次攻击都将根据造成的伤害回复20%的血量。
+[color=#D8D8D8]主动:狂热 [/color]
+攻击速度提升110,移动速度提升30,但护甲降低8点,并被沉默。持续8秒。
+CD:22    耗蓝:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 16 [/color]力量
++[color=#D8D8D8] 8 [/color]攻击力
++[color=#D8D8D8] 12% [/color]状态抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜叉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/夜叉 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/夜叉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 16 [/color]敏捷
++[color=#D8D8D8] 12 [/color]攻击速度
++[color=#D8D8D8] 20 [/color]移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漩涡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/漩涡 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/漩涡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 24 [/color]攻击力
+[color=#D8D8D8]被动:连环闪电 [/color]
+攻击有25%的几率释放一道连环闪电，在9米内的4个目标之间跳跃，造成160点魔法伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净魂之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/净魂之刃 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/净魂之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 20 [/color]敏捷
++[color=#D8D8D8] 10 [/color]智力
+[color=#D8D8D8]被动:破法 [/color]
+每次攻击燃烧目标50点魔法值,每燃烧一点魔法值都将造成0.8点物理伤害
+[color=#D8D8D8]主动:阻止 [/color]
+减缓目标移动速度50%,持续4秒
+施法距离:6米
+CD:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黯灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/黯灭 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/黯灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 50 [/color]攻击力
+[color=#D8D8D8]被动:腐蚀 [/color]
+物理攻击将降低目标7点护甲,持续15秒,不叠加。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天堂之戟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/天堂之戟 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/天堂之戟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 25% [/color]闪避
++[color=#D8D8D8] 25 [/color]攻击力
++[color=#D8D8D8] 20 [/color]力量
++[color=#D8D8D8] 14% [/color]状态抗性
+[color=#D8D8D8]主动:缴械 [/color]
+阻止目标进行物理攻击,持续5/3秒(远程/近战)
+施法距离:6
+CD:18    耗蓝:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静夜对剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/静夜对剑 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/静夜对剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 16 [/color]力量
++[color=#D8D8D8] 16 [/color]敏捷
++[color=#D8D8D8] 16% [/color]状态抗性
++[color=#D8D8D8] 16 [/color]攻击速度
++[color=#D8D8D8] 30 [/color]移动速度
++[color=#D8D8D8] 12 [/color]攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯嘉蒂之眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/斯嘉蒂之眼 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/斯嘉蒂之眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 25 [/color]所有属性
++[color=#D8D8D8] 225 [/color]生命值
++[color=#D8D8D8] 250 [/color]魔法值
+[color=#D8D8D8]被动:霜冻攻击 [/color]
+攻击附带霜冻效果,持续3秒,减缓远程敌人单位45%的移动速度并降低45点攻击速度。
+减缓近战敌人单位20%的移动速度并降低20点攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/撒旦之邪力 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/撒旦之邪力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒旦之邪力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 25 [/color]力量
++[color=#D8D8D8] 25 [/color]攻击力
++[color=#D8D8D8] 30% [/D86color]状态抗性
+[color=#D8D8D8]主动:不洁狂热 [/color]
+吸血效果提升200%,持续5秒。
+[color=#D8D8D8]被动:吸血 [/color]
+每次攻击根据造成的伤害回复25%的生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔刀锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/恶魔刀锋 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/恶魔刀锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 42 [/color]攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹰歌弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/鹰歌弓 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/鹰歌弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 25 [/color]敏捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掠夺者之斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/掠夺者之斧 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/掠夺者之斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 25 [/color]力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣者遗物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/圣者遗物 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/圣者遗物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 60 [/color]攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/板甲 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/板甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 10 [/color]护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避护符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/闪避护符 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/闪避护符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 15% [/color]闪避
+非线性叠加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振奋宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/振奋宝石 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/振奋宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 55 [/color]攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极限法球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/极限法球 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/极限法球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 10 [/color]所有属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/神秘法杖 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/神秘法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 25 [/color]智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量之球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/能量之球 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/能量之球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 250 [/color]魔法值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精气之球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/精气之球 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/精气之球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 175 [/color]生命值
++[color=#D8D8D8] 175 [/color]魔法值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力之球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/活力之球 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/活力之球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 250 [/color]生命值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1806,10 +2194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1893,16 +2281,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1910,16 +2298,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1927,16 +2315,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -1944,16 +2332,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -1961,16 +2349,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -1978,16 +2366,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -1995,16 +2383,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -2012,16 +2400,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -2029,16 +2417,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -2046,16 +2434,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -2063,16 +2451,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -2080,16 +2468,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -2097,16 +2485,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -2114,16 +2502,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -2131,16 +2519,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -2148,16 +2536,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -2165,16 +2553,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -2182,16 +2570,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -2199,16 +2587,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -2216,16 +2604,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -2233,16 +2621,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -2250,16 +2638,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -2267,16 +2655,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -2284,16 +2672,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -2301,16 +2689,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -2318,16 +2706,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -2335,16 +2723,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -2352,16 +2740,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -2369,16 +2757,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D33" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -2386,16 +2774,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D34" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -2403,16 +2791,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -2420,16 +2808,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D36" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -2437,16 +2825,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D37" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -2454,16 +2842,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C38" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -2471,16 +2859,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C39" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D39" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -2488,16 +2876,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C40" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -2505,16 +2893,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C41" t="s">
-        <v>158</v>
-      </c>
-      <c r="D41" t="s">
-        <v>157</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -2522,16 +2910,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C42" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D42" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -2539,16 +2927,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C43" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D43" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -2556,16 +2944,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C44" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D44" t="s">
+        <v>166</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="81" x14ac:dyDescent="0.15">
@@ -2573,16 +2961,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C45" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D45" t="s">
+        <v>170</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -2590,16 +2978,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C46" t="s">
+        <v>174</v>
+      </c>
+      <c r="D46" t="s">
+        <v>176</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="D46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -2607,16 +2995,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C47" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D47" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -2624,16 +3012,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C48" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -2641,16 +3029,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C49" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D49" t="s">
+        <v>192</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
@@ -2658,16 +3046,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C50" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D50" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -2675,16 +3063,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C51" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D51" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -2692,16 +3080,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C52" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D52" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -2709,16 +3097,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>205</v>
+      </c>
+      <c r="C53" t="s">
+        <v>204</v>
+      </c>
+      <c r="D53" t="s">
+        <v>203</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="C53" t="s">
-        <v>207</v>
-      </c>
-      <c r="D53" t="s">
-        <v>206</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -2726,16 +3114,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C54" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D54" t="s">
+        <v>209</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -2743,16 +3131,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C55" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D55" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -2760,16 +3148,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C56" t="s">
+        <v>216</v>
+      </c>
+      <c r="D56" t="s">
+        <v>218</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="D56" t="s">
-        <v>221</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -2777,16 +3165,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C57" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D57" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -2794,16 +3182,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C58" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D58" t="s">
+        <v>228</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -2811,16 +3199,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C59" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D59" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="81" x14ac:dyDescent="0.15">
@@ -2828,16 +3216,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C60" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D60" t="s">
+        <v>235</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -2845,16 +3233,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C61" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D61" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -2862,16 +3250,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C62" t="s">
+        <v>242</v>
+      </c>
+      <c r="D62" t="s">
+        <v>244</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="D62" t="s">
-        <v>247</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -2879,16 +3267,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C63" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D63" t="s">
+        <v>246</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -2896,16 +3284,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C64" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D64" t="s">
+        <v>250</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
@@ -2913,16 +3301,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C65" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D65" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -2930,16 +3318,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C66" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D66" t="s">
+        <v>257</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="81" x14ac:dyDescent="0.15">
@@ -2947,16 +3335,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C67" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D67" t="s">
+        <v>261</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -2964,16 +3352,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C68" t="s">
+        <v>266</v>
+      </c>
+      <c r="D68" t="s">
+        <v>265</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="D68" t="s">
-        <v>268</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -2981,16 +3369,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C69" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D69" t="s">
+        <v>270</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="81" x14ac:dyDescent="0.15">
@@ -2998,16 +3386,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C70" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D70" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -3015,16 +3403,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C71" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D71" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="135" x14ac:dyDescent="0.15">
@@ -3032,16 +3420,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C72" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D72" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -3049,16 +3437,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C73" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D73" t="s">
+        <v>284</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="81" x14ac:dyDescent="0.15">
@@ -3066,16 +3454,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C74" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D74" t="s">
+        <v>288</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -3083,16 +3471,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C75" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D75" t="s">
+        <v>292</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="81" x14ac:dyDescent="0.15">
@@ -3100,118 +3488,390 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C76" t="s">
+        <v>296</v>
+      </c>
+      <c r="D76" t="s">
+        <v>298</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D76" t="s">
-        <v>301</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+        <v>305</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>310</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>309</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+        <v>308</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>315</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>314</v>
       </c>
       <c r="D79" t="s">
-        <v>19</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+        <v>313</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>20</v>
+        <v>319</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>318</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+        <v>317</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>323</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+        <v>321</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>327</v>
       </c>
       <c r="C82" t="s">
-        <v>17</v>
+        <v>326</v>
       </c>
       <c r="D82" t="s">
-        <v>19</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>21</v>
+        <v>325</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>331</v>
+      </c>
+      <c r="C83" t="s">
+        <v>330</v>
+      </c>
+      <c r="D83" t="s">
+        <v>329</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>335</v>
+      </c>
+      <c r="C84" t="s">
+        <v>334</v>
+      </c>
+      <c r="D84" t="s">
+        <v>333</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>339</v>
+      </c>
+      <c r="C85" t="s">
+        <v>338</v>
+      </c>
+      <c r="D85" t="s">
+        <v>337</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>342</v>
+      </c>
+      <c r="C86" t="s">
+        <v>341</v>
+      </c>
+      <c r="D86" t="s">
+        <v>343</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>347</v>
+      </c>
+      <c r="C87" t="s">
+        <v>346</v>
+      </c>
+      <c r="D87" t="s">
+        <v>345</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>351</v>
+      </c>
+      <c r="C88" t="s">
+        <v>350</v>
+      </c>
+      <c r="D88" t="s">
+        <v>349</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>355</v>
+      </c>
+      <c r="C89" t="s">
+        <v>354</v>
+      </c>
+      <c r="D89" t="s">
+        <v>353</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>359</v>
+      </c>
+      <c r="C90" t="s">
+        <v>358</v>
+      </c>
+      <c r="D90" t="s">
+        <v>357</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>363</v>
+      </c>
+      <c r="C91" t="s">
+        <v>362</v>
+      </c>
+      <c r="D91" t="s">
+        <v>361</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>367</v>
+      </c>
+      <c r="C92" t="s">
+        <v>366</v>
+      </c>
+      <c r="D92" t="s">
+        <v>365</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>371</v>
+      </c>
+      <c r="C93" t="s">
+        <v>370</v>
+      </c>
+      <c r="D93" t="s">
+        <v>369</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>375</v>
+      </c>
+      <c r="C94" t="s">
+        <v>374</v>
+      </c>
+      <c r="D94" t="s">
+        <v>373</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>379</v>
+      </c>
+      <c r="C95" t="s">
+        <v>378</v>
+      </c>
+      <c r="D95" t="s">
+        <v>377</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>383</v>
+      </c>
+      <c r="C96" t="s">
+        <v>382</v>
+      </c>
+      <c r="D96" t="s">
+        <v>381</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>387</v>
+      </c>
+      <c r="C97" t="s">
+        <v>386</v>
+      </c>
+      <c r="D97" t="s">
+        <v>385</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>391</v>
+      </c>
+      <c r="C98" t="s">
+        <v>390</v>
+      </c>
+      <c r="D98" t="s">
+        <v>389</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -1504,10 +1504,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>漩涡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/漩涡 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1519,10 +1515,6 @@
     <t>+[color=#D8D8D8] 24 [/color]攻击力
 [color=#D8D8D8]被动:连环闪电 [/color]
 攻击有25%的几率释放一道连环闪电，在9米内的4个目标之间跳跃，造成160点魔法伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净魂之刃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1640,207 +1632,216 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>恶魔刀锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/恶魔刀锋 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/恶魔刀锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 42 [/color]攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹰歌弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/鹰歌弓 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/鹰歌弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 25 [/color]敏捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掠夺者之斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/掠夺者之斧 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/掠夺者之斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 25 [/color]力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣者遗物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/圣者遗物 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/圣者遗物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 60 [/color]攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/板甲 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/板甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 10 [/color]护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避护符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/闪避护符 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/闪避护符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 15% [/color]闪避
+非线性叠加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振奋宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/振奋宝石 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/振奋宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 55 [/color]攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极限法球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/极限法球 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/极限法球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 10 [/color]所有属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/神秘法杖 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/神秘法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 25 [/color]智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量之球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/能量之球 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/能量之球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 250 [/color]魔法值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精气之球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/精气之球 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/精气之球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 175 [/color]生命值
++[color=#D8D8D8] 175 [/color]魔法值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力之球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/活力之球 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/活力之球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 250 [/color]生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漩涡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净魂之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>+[color=#D8D8D8] 25 [/color]力量
 +[color=#D8D8D8] 25 [/color]攻击力
-+[color=#D8D8D8] 30% [/D86color]状态抗性
++[color=#D8D8D8] 30% [/color]状态抗性
 [color=#D8D8D8]主动:不洁狂热 [/color]
 吸血效果提升200%,持续5秒。
+CD:35
 [color=#D8D8D8]被动:吸血 [/color]
 每次攻击根据造成的伤害回复25%的生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶魔刀锋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item/Icon/恶魔刀锋 (1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/恶魔刀锋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 42 [/color]攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹰歌弓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item/Icon/鹰歌弓 (1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/鹰歌弓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 25 [/color]敏捷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掠夺者之斧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item/Icon/掠夺者之斧 (1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/掠夺者之斧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 25 [/color]力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣者遗物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item/Icon/圣者遗物 (1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/圣者遗物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 60 [/color]攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>板甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item/Icon/板甲 (1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/板甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 10 [/color]护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避护符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item/Icon/闪避护符 (1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/闪避护符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 15% [/color]闪避
-非线性叠加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>振奋宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item/Icon/振奋宝石 (1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/振奋宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 55 [/color]攻击速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极限法球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item/Icon/极限法球 (1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/极限法球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 10 [/color]所有属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘法杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item/Icon/神秘法杖 (1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/神秘法杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 25 [/color]智力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量之球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item/Icon/能量之球 (1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/能量之球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 250 [/color]魔法值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精气之球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item/Icon/精气之球 (1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/精气之球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 175 [/color]生命值
-+[color=#D8D8D8] 175 [/color]魔法值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活力之球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item/Icon/活力之球 (1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/活力之球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 250 [/color]生命值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2196,8 +2197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3556,16 +3557,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>318</v>
+      </c>
+      <c r="C80" t="s">
+        <v>317</v>
+      </c>
+      <c r="D80" t="s">
+        <v>390</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="C80" t="s">
-        <v>318</v>
-      </c>
-      <c r="D80" t="s">
-        <v>317</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -3573,16 +3574,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C81" t="s">
+        <v>320</v>
+      </c>
+      <c r="D81" t="s">
+        <v>391</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="D81" t="s">
-        <v>321</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -3590,16 +3591,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C82" t="s">
+        <v>324</v>
+      </c>
+      <c r="D82" t="s">
+        <v>323</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="D82" t="s">
-        <v>325</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -3607,16 +3608,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C83" t="s">
+        <v>328</v>
+      </c>
+      <c r="D83" t="s">
+        <v>327</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="D83" t="s">
-        <v>329</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="81" x14ac:dyDescent="0.15">
@@ -3624,16 +3625,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C84" t="s">
+        <v>332</v>
+      </c>
+      <c r="D84" t="s">
+        <v>331</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="D84" t="s">
-        <v>333</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="81" x14ac:dyDescent="0.15">
@@ -3641,33 +3642,33 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C85" t="s">
+        <v>336</v>
+      </c>
+      <c r="D85" t="s">
+        <v>335</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D85" t="s">
-        <v>337</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C86" t="s">
+        <v>339</v>
+      </c>
+      <c r="D86" t="s">
         <v>341</v>
       </c>
-      <c r="D86" t="s">
-        <v>343</v>
-      </c>
       <c r="E86" s="2" t="s">
-        <v>344</v>
+        <v>392</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
@@ -3675,16 +3676,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C87" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D87" t="s">
+        <v>342</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
@@ -3692,16 +3693,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C88" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D88" t="s">
+        <v>346</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
@@ -3709,16 +3710,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C89" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D89" t="s">
+        <v>350</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
@@ -3726,16 +3727,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C90" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D90" t="s">
+        <v>354</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
@@ -3743,16 +3744,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C91" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D91" t="s">
+        <v>358</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -3760,16 +3761,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C92" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D92" t="s">
+        <v>362</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
@@ -3777,16 +3778,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C93" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D93" t="s">
+        <v>366</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
@@ -3794,16 +3795,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C94" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D94" t="s">
+        <v>370</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
@@ -3811,16 +3812,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C95" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D95" t="s">
+        <v>374</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
@@ -3828,16 +3829,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C96" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D96" t="s">
+        <v>378</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -3845,16 +3846,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C97" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D97" t="s">
+        <v>382</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
@@ -3862,16 +3863,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C98" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D98" t="s">
+        <v>386</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>392</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -48,12 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>力量手套</t>
-  </si>
-  <si>
-    <t>敏捷便鞋</t>
-  </si>
-  <si>
     <t>Des</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>智力斗篷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/智力斗篷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>精灵布带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+[color=#D8D8D8] 6 [/color]敏捷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>法师长袍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/法师长袍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,18 +135,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>食人魔之斧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/食人魔之斧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>欢欣之刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/欢欣之刃 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>魔力法杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/魔力法杖 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,18 +159,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>守护指环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+[color=#D8D8D8] 2 [/color]护甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>圆盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/圆盾 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,10 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>淬毒之珠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/淬毒之珠 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,18 +187,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击之爪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+[color=#D8D8D8] 9 [/color]攻击力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>锁子甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/锁子甲 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -261,14 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>短棍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁意头盔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/铁意头盔 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,10 +219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阔剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/阔剑 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,18 +239,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+[color=#D8D8D8] 21 [/color]攻击力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/标枪 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,10 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>秘银锤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/秘银锤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -333,10 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>贤者面罩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/贤者面罩 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,10 +271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回复戒指</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/回复戒指 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,10 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>速度之靴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/速度之靴 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -381,10 +295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加速手套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/加速手套 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -397,10 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抗魔斗篷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/抗魔斗篷 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -417,10 +323,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>治疗指环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/治疗指环 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -433,10 +335,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>虚无宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/虚无宝石 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -461,10 +359,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>幽魂权杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/幽魂权杖 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -473,23 +367,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>闪烁匕首</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/闪烁匕首 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ui://GameUI/闪烁匕首</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圆环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量腰带</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -552,19 +434,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>护腕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/护腕 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ui://GameUI/护腕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相位鞋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -582,10 +456,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>动力鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/动力鞋 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -597,10 +467,6 @@
     <t>+[color=#D8D8D8] 15% [/color]移动速度
 +[color=#D8D8D8] 10 [/color]主属性
 +[color=#D8D8D8] 20 [/color]攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空明杖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -619,10 +485,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>坚韧球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/坚韧球 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -636,19 +498,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王者之戒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/王者之戒 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ui://GameUI/王者之戒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复头巾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -709,10 +563,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>奥术鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/奥术鞋 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -726,10 +576,6 @@
 [color=#D8D8D8]主动:补魔 [/color]
 立即恢复12米内的友方单位160魔法
 CD:55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韧鼓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -758,29 +604,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>弗拉迪米尔的祭品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[color=#D8D8D8]被动:弗拉迪米尔光环 [/color]
 为12米内的友方单位提供吸血，1.5点/秒的魔法恢复速度,15%额外攻击力,4点护甲。
 吸血效果近战15%,远程10%。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>梅肯斯姆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/梅肯斯姆 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ui://GameUI/梅肯斯姆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洞察烟斗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -810,14 +644,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>怨灵系带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空灵挂件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+[color=#D8D8D8] 15% [/color]移动速度
 +[color=#D8D8D8] 18 [/color]攻击力(近战)
 +[color=#D8D8D8] 12 [/color]攻击力(远程)
@@ -828,14 +654,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玄冥盾牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勇气勋章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+[color=#D8D8D8] 5 [/color]所有属性
 +[color=#D8D8D8] 5 [/color]护甲
 [color=#D8D8D8]主动:回复 [/color]
@@ -846,10 +664,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原力法杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/原力法杖 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -866,10 +680,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>纷争面纱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/纷争面纱 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -878,10 +688,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>达贡之神力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/达贡之神力 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -894,19 +700,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿托斯之棍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/阿托斯之棍 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ui://GameUI/阿托斯之棍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EUL的神圣法杖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -931,10 +729,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿哈利姆神杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/阿哈利姆神杖 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -957,10 +751,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>紫怨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/紫怨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -970,10 +760,6 @@
   </si>
   <si>
     <t>ui://GameUI/刷新球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新球</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -982,10 +768,6 @@
 [color=#D8D8D8]主动:完全重置 [/color]
 重置所有物品和技能的CD
 CD:195    耗蓝:375</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪恶镰刀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1046,10 +828,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>水晶剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/水晶剑 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1064,19 +842,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>碎颅锤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/碎颅锤 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ui://GameUI/碎颅锤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂战斧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1097,10 +867,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>虚灵之刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/虚灵之刃 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1114,10 +880,6 @@
   </si>
   <si>
     <t>ui://GameUI/金箍棒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金箍棒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1128,10 +890,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代达罗斯之殇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/代达罗斯之殇 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1143,10 +901,6 @@
     <t>+[color=#D8D8D8] 80 [/color]攻击力
 [color=#D8D8D8]被动:致命一击 [/color]
 攻击时有30%的几率造成235%的伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蝴蝶剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1175,10 +929,6 @@
   <si>
     <t>[color=#D8D8D8]被动:伤害格挡 [/color]
 有50%的几率格挡伤害,近战英雄格挡20点伤害,远程英雄格挡9点伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战头巾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1195,10 +945,6 @@
 [color=#D8D8D8]被动:绝缘 [/color]
 创造一个能吸收325点魔法伤害的护盾,持续12秒。
 CD:60    耗蓝:75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刃甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1216,10 +962,6 @@
 [color=#D8D8D8]主动:反弹伤害 [/color]
 反弹所有受到的伤害,持续4.5秒
 CD:25    耗蓝:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先锋盾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1254,10 +996,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>振魂石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/振魂石 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1268,10 +1006,6 @@
   <si>
     <t>+[color=#D8D8D8] 425 [/color]生命值
 +[color=#D8D8D8] 425 [/color]魔法值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑皇杖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1310,19 +1044,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>幻影斧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/幻影斧 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ui://GameUI/幻影斧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血精石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1345,10 +1071,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>林肯法球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/林肯法球 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1366,10 +1088,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>强袭胸甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/强袭胸甲 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1390,10 +1108,6 @@
   </si>
   <si>
     <t>ui://GameUI/恐鳌之心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恐鳌之心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1422,14 +1136,6 @@
 如果目标为敌人则造成400的魔法伤害，并减速80%。
 施法距离:8米
 CD:20   耗蓝:100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深渊之刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西瓦的守护</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1446,19 +1152,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>疯狂面具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/疯狂面具 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ui://GameUI/疯狂面具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散华</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1483,10 +1181,6 @@
     <t>+[color=#D8D8D8] 16 [/color]力量
 +[color=#D8D8D8] 8 [/color]攻击力
 +[color=#D8D8D8] 12% [/color]状态抗性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜叉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1537,10 +1231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黯灭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/黯灭 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1552,10 +1242,6 @@
     <t>+[color=#D8D8D8] 50 [/color]攻击力
 [color=#D8D8D8]被动:腐蚀 [/color]
 物理攻击将降低目标7点护甲,持续15秒,不叠加。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天堂之戟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1578,10 +1264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>静夜对剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/静夜对剑 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1599,10 +1281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>斯嘉蒂之眼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/斯嘉蒂之眼 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1628,14 +1306,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>撒旦之邪力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶魔刀锋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/恶魔刀锋 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1648,10 +1318,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鹰歌弓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/鹰歌弓 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1664,10 +1330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>掠夺者之斧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/掠夺者之斧 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1680,10 +1342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>圣者遗物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/圣者遗物 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1696,10 +1354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>板甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/板甲 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1709,10 +1363,6 @@
   </si>
   <si>
     <t>+[color=#D8D8D8] 10 [/color]护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避护符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1729,10 +1379,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>振奋宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/振奋宝石 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1745,10 +1391,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>极限法球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/极限法球 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1761,10 +1403,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>神秘法杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/神秘法杖 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1777,10 +1415,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>能量之球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/能量之球 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1790,10 +1424,6 @@
   </si>
   <si>
     <t>+[color=#D8D8D8] 250 [/color]魔法值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精气之球</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1810,10 +1440,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>活力之球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/活力之球 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1823,14 +1449,6 @@
   </si>
   <si>
     <t>+[color=#D8D8D8] 250 [/color]生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漩涡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净魂之刃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1842,6 +1460,390 @@
 CD:35
 [color=#D8D8D8]被动:吸血 [/color]
 每次攻击根据造成的伤害回复25%的生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力篷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆环腰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量腰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师袍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆之盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短小棍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标之枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法面罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔抗篷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复指环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空明神杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲盾牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小勋章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘法鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战鼓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅肯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笛子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纷争</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿托斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉默刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溅射斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚灵刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金箍棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BKB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分身斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵消球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强袭甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯脸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小电锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减甲刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴械刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒旦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击刀锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量之斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击遗物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性法球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法之球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精气球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力球</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2197,8 +2199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2223,7 +2225,7 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2237,10 +2239,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>297</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -2254,10 +2256,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -2265,16 +2267,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -2282,16 +2284,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>300</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -2299,16 +2301,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>301</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -2316,16 +2318,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>302</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -2333,16 +2335,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>303</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -2350,16 +2352,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>304</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -2367,16 +2369,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -2384,16 +2386,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>306</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -2401,16 +2403,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -2418,16 +2420,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>308</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -2435,16 +2437,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>309</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -2452,16 +2454,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>310</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -2469,16 +2471,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>311</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -2486,16 +2488,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>312</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -2503,16 +2505,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>313</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -2520,16 +2522,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>314</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -2537,16 +2539,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>315</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -2554,16 +2556,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>316</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -2571,16 +2573,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -2588,16 +2590,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -2605,16 +2607,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>319</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -2622,16 +2624,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>320</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -2639,16 +2641,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>321</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -2656,16 +2658,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>322</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -2673,16 +2675,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>323</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -2690,16 +2692,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>324</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -2707,16 +2709,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -2724,16 +2726,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>325</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -2741,16 +2743,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>326</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -2758,16 +2760,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>186</v>
+        <v>327</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -2775,16 +2777,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>187</v>
+        <v>328</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -2792,16 +2794,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>329</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -2809,16 +2811,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="C36" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s">
-        <v>135</v>
+        <v>330</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -2826,16 +2828,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
+        <v>331</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -2843,16 +2845,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>332</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -2860,16 +2862,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="D39" t="s">
-        <v>147</v>
+        <v>334</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -2877,16 +2879,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="D40" t="s">
-        <v>151</v>
+        <v>333</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -2894,16 +2896,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="D41" t="s">
-        <v>154</v>
+        <v>335</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -2911,16 +2913,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="C42" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="D42" t="s">
-        <v>189</v>
+        <v>336</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -2928,16 +2930,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="D43" t="s">
-        <v>190</v>
+        <v>337</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -2945,16 +2947,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="D44" t="s">
-        <v>166</v>
+        <v>338</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="81" x14ac:dyDescent="0.15">
@@ -2962,16 +2964,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="C45" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="D45" t="s">
-        <v>170</v>
+        <v>339</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -2979,16 +2981,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="D46" t="s">
-        <v>176</v>
+        <v>340</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -2996,16 +2998,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
-        <v>178</v>
+        <v>341</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -3013,16 +3015,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="D48" t="s">
-        <v>181</v>
+        <v>342</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -3030,16 +3032,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="C49" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="D49" t="s">
-        <v>192</v>
+        <v>343</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
@@ -3047,16 +3049,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="C50" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="D50" t="s">
-        <v>196</v>
+        <v>344</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -3064,16 +3066,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="C51" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="D51" t="s">
-        <v>199</v>
+        <v>345</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -3081,16 +3083,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="C52" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="D52" t="s">
-        <v>206</v>
+        <v>346</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -3098,16 +3100,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="C53" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="D53" t="s">
-        <v>203</v>
+        <v>347</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -3115,16 +3117,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="C54" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="D54" t="s">
-        <v>209</v>
+        <v>348</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -3132,16 +3134,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="C55" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="D55" t="s">
-        <v>214</v>
+        <v>349</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -3149,16 +3151,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
       <c r="C56" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="D56" t="s">
-        <v>218</v>
+        <v>350</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -3166,16 +3168,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="C57" t="s">
-        <v>221</v>
+        <v>166</v>
       </c>
       <c r="D57" t="s">
-        <v>220</v>
+        <v>351</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -3183,16 +3185,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="C58" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="D58" t="s">
-        <v>228</v>
+        <v>352</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -3200,16 +3202,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="C59" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="D59" t="s">
-        <v>232</v>
+        <v>353</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>300</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="81" x14ac:dyDescent="0.15">
@@ -3217,16 +3219,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="C60" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="D60" t="s">
-        <v>235</v>
+        <v>354</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -3234,16 +3236,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="C61" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="D61" t="s">
-        <v>239</v>
+        <v>355</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>301</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -3251,16 +3253,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>243</v>
+        <v>184</v>
       </c>
       <c r="C62" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="D62" t="s">
-        <v>244</v>
+        <v>356</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>245</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -3268,16 +3270,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="C63" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="D63" t="s">
-        <v>246</v>
+        <v>357</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>249</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -3285,16 +3287,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="C64" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="D64" t="s">
-        <v>250</v>
+        <v>358</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
@@ -3302,16 +3304,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c r="C65" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="D65" t="s">
-        <v>302</v>
+        <v>359</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>268</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -3319,16 +3321,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c r="C66" t="s">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="D66" t="s">
-        <v>257</v>
+        <v>360</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>260</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="81" x14ac:dyDescent="0.15">
@@ -3336,16 +3338,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
       <c r="C67" t="s">
-        <v>262</v>
+        <v>198</v>
       </c>
       <c r="D67" t="s">
-        <v>261</v>
+        <v>361</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>264</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -3353,16 +3355,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>267</v>
+        <v>202</v>
       </c>
       <c r="C68" t="s">
-        <v>266</v>
+        <v>201</v>
       </c>
       <c r="D68" t="s">
-        <v>265</v>
+        <v>362</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>269</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -3370,16 +3372,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="C69" t="s">
-        <v>271</v>
+        <v>205</v>
       </c>
       <c r="D69" t="s">
-        <v>270</v>
+        <v>363</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>273</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="81" x14ac:dyDescent="0.15">
@@ -3387,16 +3389,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
       <c r="C70" t="s">
-        <v>275</v>
+        <v>208</v>
       </c>
       <c r="D70" t="s">
-        <v>274</v>
+        <v>364</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -3404,16 +3406,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="C71" t="s">
-        <v>277</v>
+        <v>210</v>
       </c>
       <c r="D71" t="s">
-        <v>303</v>
+        <v>365</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="135" x14ac:dyDescent="0.15">
@@ -3421,16 +3423,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>283</v>
+        <v>215</v>
       </c>
       <c r="C72" t="s">
-        <v>282</v>
+        <v>214</v>
       </c>
       <c r="D72" t="s">
-        <v>281</v>
+        <v>366</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -3438,16 +3440,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>286</v>
+        <v>217</v>
       </c>
       <c r="C73" t="s">
-        <v>285</v>
+        <v>216</v>
       </c>
       <c r="D73" t="s">
-        <v>284</v>
+        <v>367</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="81" x14ac:dyDescent="0.15">
@@ -3455,16 +3457,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="C74" t="s">
-        <v>289</v>
+        <v>219</v>
       </c>
       <c r="D74" t="s">
-        <v>288</v>
+        <v>368</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>291</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -3472,16 +3474,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>294</v>
+        <v>223</v>
       </c>
       <c r="C75" t="s">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="D75" t="s">
-        <v>292</v>
+        <v>369</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>295</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="81" x14ac:dyDescent="0.15">
@@ -3489,16 +3491,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>297</v>
+        <v>226</v>
       </c>
       <c r="C76" t="s">
-        <v>296</v>
+        <v>225</v>
       </c>
       <c r="D76" t="s">
-        <v>298</v>
+        <v>370</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>299</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -3506,16 +3508,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>307</v>
+        <v>232</v>
       </c>
       <c r="C77" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
       <c r="D77" t="s">
-        <v>305</v>
+        <v>371</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -3523,16 +3525,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>310</v>
+        <v>234</v>
       </c>
       <c r="C78" t="s">
-        <v>309</v>
+        <v>233</v>
       </c>
       <c r="D78" t="s">
-        <v>308</v>
+        <v>372</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>312</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -3540,16 +3542,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>315</v>
+        <v>238</v>
       </c>
       <c r="C79" t="s">
-        <v>314</v>
+        <v>237</v>
       </c>
       <c r="D79" t="s">
-        <v>313</v>
+        <v>373</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>316</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -3557,16 +3559,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>318</v>
+        <v>241</v>
       </c>
       <c r="C80" t="s">
-        <v>317</v>
+        <v>240</v>
       </c>
       <c r="D80" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>319</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -3574,16 +3576,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>321</v>
+        <v>244</v>
       </c>
       <c r="C81" t="s">
-        <v>320</v>
+        <v>243</v>
       </c>
       <c r="D81" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>322</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -3591,16 +3593,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>325</v>
+        <v>247</v>
       </c>
       <c r="C82" t="s">
-        <v>324</v>
+        <v>246</v>
       </c>
       <c r="D82" t="s">
-        <v>323</v>
+        <v>376</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>326</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -3608,16 +3610,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>329</v>
+        <v>250</v>
       </c>
       <c r="C83" t="s">
-        <v>328</v>
+        <v>249</v>
       </c>
       <c r="D83" t="s">
-        <v>327</v>
+        <v>377</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>330</v>
+        <v>251</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="81" x14ac:dyDescent="0.15">
@@ -3625,16 +3627,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>333</v>
+        <v>253</v>
       </c>
       <c r="C84" t="s">
-        <v>332</v>
+        <v>252</v>
       </c>
       <c r="D84" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>334</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="81" x14ac:dyDescent="0.15">
@@ -3642,16 +3644,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>337</v>
+        <v>256</v>
       </c>
       <c r="C85" t="s">
-        <v>336</v>
+        <v>255</v>
       </c>
       <c r="D85" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>338</v>
+        <v>257</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -3659,16 +3661,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>340</v>
+        <v>259</v>
       </c>
       <c r="C86" t="s">
-        <v>339</v>
+        <v>258</v>
       </c>
       <c r="D86" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>392</v>
+        <v>296</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
@@ -3676,16 +3678,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>344</v>
+        <v>261</v>
       </c>
       <c r="C87" t="s">
-        <v>343</v>
+        <v>260</v>
       </c>
       <c r="D87" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>345</v>
+        <v>262</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
@@ -3693,16 +3695,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>348</v>
+        <v>264</v>
       </c>
       <c r="C88" t="s">
-        <v>347</v>
+        <v>263</v>
       </c>
       <c r="D88" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>349</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
@@ -3710,16 +3712,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
       <c r="C89" t="s">
-        <v>351</v>
+        <v>266</v>
       </c>
       <c r="D89" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>353</v>
+        <v>268</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
@@ -3727,16 +3729,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>356</v>
+        <v>270</v>
       </c>
       <c r="C90" t="s">
-        <v>355</v>
+        <v>269</v>
       </c>
       <c r="D90" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>357</v>
+        <v>271</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
@@ -3744,16 +3746,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>360</v>
+        <v>273</v>
       </c>
       <c r="C91" t="s">
-        <v>359</v>
+        <v>272</v>
       </c>
       <c r="D91" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>361</v>
+        <v>274</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -3761,16 +3763,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>364</v>
+        <v>276</v>
       </c>
       <c r="C92" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="D92" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
@@ -3778,16 +3780,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>368</v>
+        <v>279</v>
       </c>
       <c r="C93" t="s">
-        <v>367</v>
+        <v>278</v>
       </c>
       <c r="D93" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>369</v>
+        <v>280</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
@@ -3795,16 +3797,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>372</v>
+        <v>282</v>
       </c>
       <c r="C94" t="s">
-        <v>371</v>
+        <v>281</v>
       </c>
       <c r="D94" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>373</v>
+        <v>283</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
@@ -3812,16 +3814,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>376</v>
+        <v>285</v>
       </c>
       <c r="C95" t="s">
-        <v>375</v>
+        <v>284</v>
       </c>
       <c r="D95" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>377</v>
+        <v>286</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
@@ -3829,16 +3831,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>380</v>
+        <v>288</v>
       </c>
       <c r="C96" t="s">
-        <v>379</v>
+        <v>287</v>
       </c>
       <c r="D96" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>381</v>
+        <v>289</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -3846,16 +3848,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>384</v>
+        <v>291</v>
       </c>
       <c r="C97" t="s">
-        <v>383</v>
+        <v>290</v>
       </c>
       <c r="D97" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>385</v>
+        <v>292</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
@@ -3863,20 +3865,21 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>388</v>
+        <v>294</v>
       </c>
       <c r="C98" t="s">
-        <v>387</v>
+        <v>293</v>
       </c>
       <c r="D98" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>389</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="397">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1844,6 +1844,22 @@
   </si>
   <si>
     <t>活力球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砖石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/gold1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/jingzuan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2197,10 +2213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3877,6 +3893,40 @@
         <v>295</v>
       </c>
     </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>10000</v>
+      </c>
+      <c r="B99" t="s">
+        <v>395</v>
+      </c>
+      <c r="C99" t="s">
+        <v>293</v>
+      </c>
+      <c r="D99" t="s">
+        <v>393</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>10001</v>
+      </c>
+      <c r="B100" t="s">
+        <v>396</v>
+      </c>
+      <c r="C100" t="s">
+        <v>293</v>
+      </c>
+      <c r="D100" t="s">
+        <v>394</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -840,34 +840,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>力量手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敏捷鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力篷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>圆环腰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>力量腰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敏捷布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法师袍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>力量斧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -957,18 +933,6 @@
   </si>
   <si>
     <t>跳刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量护腕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1497,17 +1461,6 @@
 对目标造成400/500/600/700/800点魔法伤害
 施法距离:6米
 CD:35    耗蓝:120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 0.2 [/color]移动速度
-+[color=#D8D8D8] 5 [/color]魔法恢复
-+[color=#D8D8D8] 10/14/16/18/20 [/color]智力
-[color=#D8D8D8]主动:龙卷风 [/color]
-使目标卷入龙卷风中2.5秒,并处于无敌状态,落地后敌方将受到50点魔法伤害
-施法距离:5.75米
-驱散类型:弱驱散
-CD:23    耗蓝:175</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1719,17 +1672,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+[color=#D8D8D8] 20/28/32/36/40 [/color]敏捷
-+[color=#D8D8D8] 10 [/color]智力
-[color=#D8D8D8]被动:破法 [/color]
-每次攻击燃烧目标50点魔法值,每燃烧一点魔法值都将造成0.8点物理伤害
-[color=#D8D8D8]主动:阻止 [/color]
-减缓目标移动速度50%,持续4秒
-施法距离:6米
-CD:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+[color=#D8D8D8] 50/70/80/90/100 [/color]攻击力
 [color=#D8D8D8]被动:腐蚀 [/color]
 物理攻击将降低目标7点护甲,持续15秒,不叠加。</t>
@@ -1864,6 +1806,65 @@
 继承30%攻击力,受到350%的伤害
 CD：45    耗蓝:125
 弱驱散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷短刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力匕首</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量粗棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷小刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力小杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量铁锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 0.2 [/color]移动速度
++[color=#D8D8D8] 5 [/color]魔法恢复
++[color=#D8D8D8] 10/14/16/18/20 [/color]智力
+[color=#D8D8D8]主动:龙卷风 [/color]
+使目标卷入龙卷风中2.5秒,并处于无敌状态,落地后敌方将受到50点魔法伤害
+施法距离:5.75米
+驱散类型:弱驱散
+队友与boss不能作为目标
+CD:23    耗蓝:175</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 20/28/32/36/40 [/color]敏捷
++[color=#D8D8D8] 10 [/color]智力
+[color=#D8D8D8]被动:破法 [/color]
+每次攻击燃烧目标50点魔法值,每燃烧一点魔法值都将造成0.8点物理伤害,对boss无效
+[color=#D8D8D8]主动:阻止 [/color]
+减缓目标移动速度50%,持续4秒
+施法距离:6米
+CD:15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2219,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I87" sqref="H87:I87"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2249,7 +2250,7 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2263,10 +2264,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>387</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2283,10 +2284,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>388</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2303,10 +2304,10 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>389</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2323,10 +2324,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2343,10 +2344,10 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>207</v>
+        <v>390</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2363,10 +2364,10 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>391</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2383,10 +2384,10 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>392</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2403,10 +2404,10 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2423,10 +2424,10 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2443,10 +2444,10 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2463,10 +2464,10 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2483,10 +2484,10 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2503,10 +2504,10 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2523,10 +2524,10 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2543,10 +2544,10 @@
         <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2563,10 +2564,10 @@
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2583,10 +2584,10 @@
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2603,10 +2604,10 @@
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2623,10 +2624,10 @@
         <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2643,10 +2644,10 @@
         <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -2663,10 +2664,10 @@
         <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -2683,10 +2684,10 @@
         <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -2703,10 +2704,10 @@
         <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -2723,10 +2724,10 @@
         <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2743,10 +2744,10 @@
         <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -2763,10 +2764,10 @@
         <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2783,10 +2784,10 @@
         <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2803,10 +2804,10 @@
         <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2826,7 +2827,7 @@
         <v>61</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -2843,10 +2844,10 @@
         <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -2863,7 +2864,7 @@
         <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>86</v>
@@ -2883,10 +2884,10 @@
         <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>233</v>
+        <v>393</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2903,10 +2904,10 @@
         <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>234</v>
+        <v>394</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -2923,10 +2924,10 @@
         <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>235</v>
+        <v>395</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -2943,10 +2944,10 @@
         <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -2963,10 +2964,10 @@
         <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -2983,10 +2984,10 @@
         <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -3003,10 +3004,10 @@
         <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -3023,10 +3024,10 @@
         <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -3043,10 +3044,10 @@
         <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -3063,10 +3064,10 @@
         <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -3083,10 +3084,10 @@
         <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -3103,10 +3104,10 @@
         <v>91</v>
       </c>
       <c r="D44" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -3123,10 +3124,10 @@
         <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -3143,10 +3144,10 @@
         <v>95</v>
       </c>
       <c r="D46" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -3163,10 +3164,10 @@
         <v>97</v>
       </c>
       <c r="D47" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -3183,10 +3184,10 @@
         <v>99</v>
       </c>
       <c r="D48" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -3203,10 +3204,10 @@
         <v>101</v>
       </c>
       <c r="D49" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -3223,10 +3224,10 @@
         <v>103</v>
       </c>
       <c r="D50" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -3243,16 +3244,16 @@
         <v>105</v>
       </c>
       <c r="D51" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="108" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3263,10 +3264,10 @@
         <v>106</v>
       </c>
       <c r="D52" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -3283,10 +3284,10 @@
         <v>108</v>
       </c>
       <c r="D53" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -3303,7 +3304,7 @@
         <v>110</v>
       </c>
       <c r="D54" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>112</v>
@@ -3323,10 +3324,10 @@
         <v>113</v>
       </c>
       <c r="D55" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -3343,10 +3344,10 @@
         <v>115</v>
       </c>
       <c r="D56" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -3363,10 +3364,10 @@
         <v>117</v>
       </c>
       <c r="D57" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -3383,10 +3384,10 @@
         <v>120</v>
       </c>
       <c r="D58" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -3403,10 +3404,10 @@
         <v>122</v>
       </c>
       <c r="D59" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -3423,10 +3424,10 @@
         <v>124</v>
       </c>
       <c r="D60" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -3443,10 +3444,10 @@
         <v>126</v>
       </c>
       <c r="D61" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -3463,10 +3464,10 @@
         <v>128</v>
       </c>
       <c r="D62" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -3483,10 +3484,10 @@
         <v>130</v>
       </c>
       <c r="D63" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -3503,10 +3504,10 @@
         <v>132</v>
       </c>
       <c r="D64" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -3523,10 +3524,10 @@
         <v>134</v>
       </c>
       <c r="D65" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -3543,10 +3544,10 @@
         <v>136</v>
       </c>
       <c r="D66" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -3563,10 +3564,10 @@
         <v>138</v>
       </c>
       <c r="D67" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -3583,10 +3584,10 @@
         <v>140</v>
       </c>
       <c r="D68" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -3603,10 +3604,10 @@
         <v>142</v>
       </c>
       <c r="D69" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -3623,10 +3624,10 @@
         <v>144</v>
       </c>
       <c r="D70" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -3643,10 +3644,10 @@
         <v>146</v>
       </c>
       <c r="D71" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -3663,10 +3664,10 @@
         <v>148</v>
       </c>
       <c r="D72" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -3683,10 +3684,10 @@
         <v>150</v>
       </c>
       <c r="D73" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -3703,7 +3704,7 @@
         <v>152</v>
       </c>
       <c r="D74" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>154</v>
@@ -3723,10 +3724,10 @@
         <v>155</v>
       </c>
       <c r="D75" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -3743,10 +3744,10 @@
         <v>157</v>
       </c>
       <c r="D76" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -3763,10 +3764,10 @@
         <v>159</v>
       </c>
       <c r="D77" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -3783,10 +3784,10 @@
         <v>161</v>
       </c>
       <c r="D78" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -3803,10 +3804,10 @@
         <v>163</v>
       </c>
       <c r="D79" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -3823,10 +3824,10 @@
         <v>165</v>
       </c>
       <c r="D80" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -3843,10 +3844,10 @@
         <v>167</v>
       </c>
       <c r="D81" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -3863,10 +3864,10 @@
         <v>169</v>
       </c>
       <c r="D82" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -3883,10 +3884,10 @@
         <v>171</v>
       </c>
       <c r="D83" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -3903,10 +3904,10 @@
         <v>173</v>
       </c>
       <c r="D84" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -3923,10 +3924,10 @@
         <v>175</v>
       </c>
       <c r="D85" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -3943,10 +3944,10 @@
         <v>177</v>
       </c>
       <c r="D86" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -3963,10 +3964,10 @@
         <v>179</v>
       </c>
       <c r="D87" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -3983,10 +3984,10 @@
         <v>181</v>
       </c>
       <c r="D88" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -4003,10 +4004,10 @@
         <v>183</v>
       </c>
       <c r="D89" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -4023,10 +4024,10 @@
         <v>185</v>
       </c>
       <c r="D90" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -4043,10 +4044,10 @@
         <v>187</v>
       </c>
       <c r="D91" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -4063,10 +4064,10 @@
         <v>189</v>
       </c>
       <c r="D92" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -4083,10 +4084,10 @@
         <v>191</v>
       </c>
       <c r="D93" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -4103,10 +4104,10 @@
         <v>193</v>
       </c>
       <c r="D94" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -4123,10 +4124,10 @@
         <v>195</v>
       </c>
       <c r="D95" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -4143,10 +4144,10 @@
         <v>197</v>
       </c>
       <c r="D96" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -4163,10 +4164,10 @@
         <v>199</v>
       </c>
       <c r="D97" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -4183,10 +4184,10 @@
         <v>201</v>
       </c>
       <c r="D98" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -4197,16 +4198,16 @@
         <v>10000</v>
       </c>
       <c r="B99" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C99" t="s">
         <v>201</v>
       </c>
       <c r="D99" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -4217,16 +4218,16 @@
         <v>10001</v>
       </c>
       <c r="B100" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C100" t="s">
         <v>201</v>
       </c>
       <c r="D100" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="F100">
         <v>0</v>

--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="401">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1865,6 +1865,18 @@
 减缓目标移动速度50%,持续4秒
 施法距离:6米
 CD:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/夺宝奇兵宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱中装有很多装备,打开后会随机获得其中一种。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2218,10 +2230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2229,7 +2241,8 @@
     <col min="2" max="2" width="39.75" customWidth="1"/>
     <col min="3" max="3" width="29.625" customWidth="1"/>
     <col min="4" max="4" width="24.375" customWidth="1"/>
-    <col min="5" max="5" width="115.75" customWidth="1"/>
+    <col min="5" max="5" width="89.875" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
     <col min="9" max="9" width="48.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4195,19 +4208,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="B99" t="s">
-        <v>292</v>
+        <v>398</v>
       </c>
       <c r="C99" t="s">
         <v>201</v>
       </c>
       <c r="D99" t="s">
-        <v>290</v>
+        <v>399</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -4215,21 +4228,41 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100">
-        <v>10001</v>
+        <v>10000</v>
       </c>
       <c r="B100" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C100" t="s">
         <v>201</v>
       </c>
       <c r="D100" t="s">
+        <v>290</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>10001</v>
+      </c>
+      <c r="B101" t="s">
+        <v>293</v>
+      </c>
+      <c r="C101" t="s">
+        <v>201</v>
+      </c>
+      <c r="D101" t="s">
         <v>291</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F100">
+      <c r="F101">
         <v>0</v>
       </c>
     </row>

--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -928,10 +928,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>绿杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>跳刀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -997,10 +993,6 @@
   </si>
   <si>
     <t>大根</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吹风</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1877,6 +1869,14 @@
   </si>
   <si>
     <t>宝箱中装有很多装备,打开后会随机获得其中一种。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹风书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2232,8 +2232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2263,7 +2263,7 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2277,10 +2277,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2297,10 +2297,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2317,10 +2317,10 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2340,7 +2340,7 @@
         <v>203</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2357,10 +2357,10 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2377,10 +2377,10 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2397,10 +2397,10 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2420,7 +2420,7 @@
         <v>204</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2440,7 +2440,7 @@
         <v>205</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2460,7 +2460,7 @@
         <v>206</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2480,7 +2480,7 @@
         <v>207</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2500,7 +2500,7 @@
         <v>208</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2520,7 +2520,7 @@
         <v>209</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2540,7 +2540,7 @@
         <v>210</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2560,7 +2560,7 @@
         <v>211</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2580,7 +2580,7 @@
         <v>212</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2600,7 +2600,7 @@
         <v>213</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2620,7 +2620,7 @@
         <v>214</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2640,7 +2640,7 @@
         <v>215</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2660,7 +2660,7 @@
         <v>216</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -2680,7 +2680,7 @@
         <v>217</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -2700,7 +2700,7 @@
         <v>218</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -2720,7 +2720,7 @@
         <v>219</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -2740,7 +2740,7 @@
         <v>220</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2760,7 +2760,7 @@
         <v>221</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -2780,7 +2780,7 @@
         <v>222</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2800,7 +2800,7 @@
         <v>223</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2820,7 +2820,7 @@
         <v>224</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2840,7 +2840,7 @@
         <v>61</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -2857,10 +2857,10 @@
         <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>225</v>
+        <v>399</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -2877,7 +2877,7 @@
         <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>86</v>
@@ -2897,10 +2897,10 @@
         <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2917,10 +2917,10 @@
         <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -2937,10 +2937,10 @@
         <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -2957,10 +2957,10 @@
         <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -2977,10 +2977,10 @@
         <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -2997,10 +2997,10 @@
         <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -3017,10 +3017,10 @@
         <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -3037,10 +3037,10 @@
         <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -3057,10 +3057,10 @@
         <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -3077,10 +3077,10 @@
         <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -3097,10 +3097,10 @@
         <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -3117,10 +3117,10 @@
         <v>91</v>
       </c>
       <c r="D44" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -3137,10 +3137,10 @@
         <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -3157,10 +3157,10 @@
         <v>95</v>
       </c>
       <c r="D46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -3177,10 +3177,10 @@
         <v>97</v>
       </c>
       <c r="D47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -3197,10 +3197,10 @@
         <v>99</v>
       </c>
       <c r="D48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -3217,10 +3217,10 @@
         <v>101</v>
       </c>
       <c r="D49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -3237,10 +3237,10 @@
         <v>103</v>
       </c>
       <c r="D50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -3257,10 +3257,10 @@
         <v>105</v>
       </c>
       <c r="D51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -3277,10 +3277,10 @@
         <v>106</v>
       </c>
       <c r="D52" t="s">
-        <v>243</v>
+        <v>400</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -3297,10 +3297,10 @@
         <v>108</v>
       </c>
       <c r="D53" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -3317,7 +3317,7 @@
         <v>110</v>
       </c>
       <c r="D54" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>112</v>
@@ -3337,10 +3337,10 @@
         <v>113</v>
       </c>
       <c r="D55" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -3357,10 +3357,10 @@
         <v>115</v>
       </c>
       <c r="D56" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -3377,10 +3377,10 @@
         <v>117</v>
       </c>
       <c r="D57" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -3397,10 +3397,10 @@
         <v>120</v>
       </c>
       <c r="D58" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -3417,10 +3417,10 @@
         <v>122</v>
       </c>
       <c r="D59" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -3437,10 +3437,10 @@
         <v>124</v>
       </c>
       <c r="D60" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -3457,10 +3457,10 @@
         <v>126</v>
       </c>
       <c r="D61" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -3477,10 +3477,10 @@
         <v>128</v>
       </c>
       <c r="D62" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -3497,10 +3497,10 @@
         <v>130</v>
       </c>
       <c r="D63" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -3517,10 +3517,10 @@
         <v>132</v>
       </c>
       <c r="D64" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -3537,10 +3537,10 @@
         <v>134</v>
       </c>
       <c r="D65" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -3557,10 +3557,10 @@
         <v>136</v>
       </c>
       <c r="D66" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -3577,10 +3577,10 @@
         <v>138</v>
       </c>
       <c r="D67" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -3597,10 +3597,10 @@
         <v>140</v>
       </c>
       <c r="D68" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -3617,10 +3617,10 @@
         <v>142</v>
       </c>
       <c r="D69" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -3637,10 +3637,10 @@
         <v>144</v>
       </c>
       <c r="D70" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -3657,10 +3657,10 @@
         <v>146</v>
       </c>
       <c r="D71" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -3677,10 +3677,10 @@
         <v>148</v>
       </c>
       <c r="D72" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -3697,10 +3697,10 @@
         <v>150</v>
       </c>
       <c r="D73" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         <v>152</v>
       </c>
       <c r="D74" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>154</v>
@@ -3737,10 +3737,10 @@
         <v>155</v>
       </c>
       <c r="D75" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -3757,10 +3757,10 @@
         <v>157</v>
       </c>
       <c r="D76" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -3777,10 +3777,10 @@
         <v>159</v>
       </c>
       <c r="D77" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -3797,10 +3797,10 @@
         <v>161</v>
       </c>
       <c r="D78" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -3817,10 +3817,10 @@
         <v>163</v>
       </c>
       <c r="D79" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -3837,10 +3837,10 @@
         <v>165</v>
       </c>
       <c r="D80" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -3857,10 +3857,10 @@
         <v>167</v>
       </c>
       <c r="D81" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -3877,10 +3877,10 @@
         <v>169</v>
       </c>
       <c r="D82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -3897,10 +3897,10 @@
         <v>171</v>
       </c>
       <c r="D83" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -3917,10 +3917,10 @@
         <v>173</v>
       </c>
       <c r="D84" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -3937,10 +3937,10 @@
         <v>175</v>
       </c>
       <c r="D85" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -3957,10 +3957,10 @@
         <v>177</v>
       </c>
       <c r="D86" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -3977,10 +3977,10 @@
         <v>179</v>
       </c>
       <c r="D87" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -3997,10 +3997,10 @@
         <v>181</v>
       </c>
       <c r="D88" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -4017,10 +4017,10 @@
         <v>183</v>
       </c>
       <c r="D89" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -4037,10 +4037,10 @@
         <v>185</v>
       </c>
       <c r="D90" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -4057,10 +4057,10 @@
         <v>187</v>
       </c>
       <c r="D91" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -4077,10 +4077,10 @@
         <v>189</v>
       </c>
       <c r="D92" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -4097,10 +4097,10 @@
         <v>191</v>
       </c>
       <c r="D93" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -4117,10 +4117,10 @@
         <v>193</v>
       </c>
       <c r="D94" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -4137,10 +4137,10 @@
         <v>195</v>
       </c>
       <c r="D95" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -4157,10 +4157,10 @@
         <v>197</v>
       </c>
       <c r="D96" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -4177,10 +4177,10 @@
         <v>199</v>
       </c>
       <c r="D97" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -4197,10 +4197,10 @@
         <v>201</v>
       </c>
       <c r="D98" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -4211,16 +4211,16 @@
         <v>200</v>
       </c>
       <c r="B99" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C99" t="s">
         <v>201</v>
       </c>
       <c r="D99" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -4231,16 +4231,16 @@
         <v>10000</v>
       </c>
       <c r="B100" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C100" t="s">
         <v>201</v>
       </c>
       <c r="D100" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -4251,16 +4251,16 @@
         <v>10001</v>
       </c>
       <c r="B101" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C101" t="s">
         <v>201</v>
       </c>
       <c r="D101" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F101">
         <v>0</v>

--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -1544,13 +1544,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+[color=#D8D8D8] 35 [/color]敏捷
-+[color=#D8D8D8] 25/35/40/45/50 [/color]攻击力
-+[color=#D8D8D8] 30 [/color]攻击速度
-+[color=#D8D8D8] 35% [/color]闪避</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+[color=#D8D8D8] 25/35/40/45/50 [/color]攻击力
 +[color=#D8D8D8] 10 [/color]力量
 +[color=#D8D8D8] 250 [/color]生命值
@@ -1615,26 +1608,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+[color=#D8D8D8] 475 [/color]生命值
-+[color=#D8D8D8] 425 [/color]魔法值
-+[color=#D8D8D8] 10 [/color]生命恢复
-+[color=#D8D8D8] 7 [/color]魔法恢复
-+[color=#D8D8D8] 200% [/color]魔法恢复速度
-[color=#D8D8D8]主动:血之契约 [/color]
-立即恢复最大魔法值20%/28%/32%/36%/40%的生命值
-CD：250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 45 [/color]力量
-+[color=#D8D8D8] 400/560/640/720/800 [/color]生命值
-+[color=#D8D8D8] 50% [/color]生命恢复增强
-[color=#D8D8D8]被动:生命恢复 [/color]
-每秒恢复最大生命值的5%。
-受到攻击的7秒内将失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+[color=#D8D8D8] 30 [/color]攻击速度
 +[color=#D8D8D8] 10/14/16/18/20 [/color]护甲
 [color=#D8D8D8]被动:强袭光环 [/color]
@@ -1877,6 +1850,33 @@
   </si>
   <si>
     <t>吹风书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 45/59/67/76/84 [/color]力量
++[color=#D8D8D8] 400/560/640/720/800 [/color]生命值
++[color=#D8D8D8] 50% [/color]生命恢复增强
+[color=#D8D8D8]被动:生命恢复 [/color]
+每秒恢复最大生命值的5%。
+受到攻击的7秒内将失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 35/45/50/55/60 [/color]敏捷
++[color=#D8D8D8] 25/35/40/45/50 [/color]攻击力
++[color=#D8D8D8] 30 [/color]攻击速度
++[color=#D8D8D8] 35% [/color]闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 475/590/670/760/840 [/color]生命值
++[color=#D8D8D8] 425/540/620/710/790 [/color]魔法值
++[color=#D8D8D8] 10 [/color]生命恢复
++[color=#D8D8D8] 7/9/11/12/13[/color]魔法恢复
++[color=#D8D8D8] 200% [/color]魔法恢复速度
+[color=#D8D8D8]主动:血之契约 [/color]
+立即恢复最大魔法值20%/28%/32%/36%/40%的生命值
+CD：250</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2232,8 +2232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2277,7 +2277,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>295</v>
@@ -2297,7 +2297,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>296</v>
@@ -2317,7 +2317,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>297</v>
@@ -2357,7 +2357,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>298</v>
@@ -2377,7 +2377,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>299</v>
@@ -2397,7 +2397,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>300</v>
@@ -2500,7 +2500,7 @@
         <v>208</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2540,7 +2540,7 @@
         <v>210</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2740,7 +2740,7 @@
         <v>220</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2780,7 +2780,7 @@
         <v>222</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2857,7 +2857,7 @@
         <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>324</v>
@@ -2897,7 +2897,7 @@
         <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>321</v>
@@ -2917,7 +2917,7 @@
         <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>313</v>
@@ -2937,7 +2937,7 @@
         <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>314</v>
@@ -3020,7 +3020,7 @@
         <v>230</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -3277,10 +3277,10 @@
         <v>106</v>
       </c>
       <c r="D52" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -3520,7 +3520,7 @@
         <v>253</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>347</v>
+        <v>399</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -3540,7 +3540,7 @@
         <v>254</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -3560,7 +3560,7 @@
         <v>255</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -3580,7 +3580,7 @@
         <v>256</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -3600,7 +3600,7 @@
         <v>257</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -3620,7 +3620,7 @@
         <v>258</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -3640,7 +3640,7 @@
         <v>259</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -3660,7 +3660,7 @@
         <v>260</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -3680,7 +3680,7 @@
         <v>261</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -3700,7 +3700,7 @@
         <v>262</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -3740,7 +3740,7 @@
         <v>264</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -3760,7 +3760,7 @@
         <v>265</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -3780,7 +3780,7 @@
         <v>266</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -3800,7 +3800,7 @@
         <v>267</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -3820,7 +3820,7 @@
         <v>268</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -3840,7 +3840,7 @@
         <v>269</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -3860,7 +3860,7 @@
         <v>270</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -3880,7 +3880,7 @@
         <v>271</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -3900,7 +3900,7 @@
         <v>272</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -3920,7 +3920,7 @@
         <v>273</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -3940,7 +3940,7 @@
         <v>274</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -3960,7 +3960,7 @@
         <v>275</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -3980,7 +3980,7 @@
         <v>276</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -4000,7 +4000,7 @@
         <v>277</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -4020,7 +4020,7 @@
         <v>278</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -4040,7 +4040,7 @@
         <v>279</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -4060,7 +4060,7 @@
         <v>280</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -4080,7 +4080,7 @@
         <v>281</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -4100,7 +4100,7 @@
         <v>282</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -4120,7 +4120,7 @@
         <v>283</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -4140,7 +4140,7 @@
         <v>284</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -4160,7 +4160,7 @@
         <v>285</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -4180,7 +4180,7 @@
         <v>286</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -4200,7 +4200,7 @@
         <v>287</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -4211,16 +4211,16 @@
         <v>200</v>
       </c>
       <c r="B99" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C99" t="s">
         <v>201</v>
       </c>
       <c r="D99" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F99">
         <v>0</v>

--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="401">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1316,12 +1316,6 @@
   <si>
     <t>+[color=#D8D8D8] 5/7/8/9/10 [/color]护甲
 +[color=#D8D8D8] 4.5/6.3/7.2/8.1/9 [/color]生命恢复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 15% [/color]移动速度
-+[color=#D8D8D8] 10/14/16/18/20 [/color]主属性
-+[color=#D8D8D8] 20 [/color]攻击力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1877,6 +1871,12 @@
 [color=#D8D8D8]主动:血之契约 [/color]
 立即恢复最大魔法值20%/28%/32%/36%/40%的生命值
 CD：250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 15% [/color]移动速度
++[color=#D8D8D8] 10/14/16/18/20 [/color]主属性
++[color=#D8D8D8] 20 [/color]攻击速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2232,8 +2232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2277,7 +2277,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>295</v>
@@ -2297,7 +2297,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>296</v>
@@ -2317,7 +2317,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>297</v>
@@ -2357,7 +2357,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>298</v>
@@ -2377,7 +2377,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>299</v>
@@ -2397,7 +2397,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>300</v>
@@ -2500,7 +2500,7 @@
         <v>208</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2540,7 +2540,7 @@
         <v>210</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2700,7 +2700,7 @@
         <v>218</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -2740,7 +2740,7 @@
         <v>220</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2780,7 +2780,7 @@
         <v>222</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2840,7 +2840,7 @@
         <v>61</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -2857,10 +2857,10 @@
         <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -2897,10 +2897,10 @@
         <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2917,7 +2917,7 @@
         <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>313</v>
@@ -2937,7 +2937,7 @@
         <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>314</v>
@@ -2980,7 +2980,7 @@
         <v>227</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>319</v>
+        <v>400</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -3000,7 +3000,7 @@
         <v>228</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -3020,7 +3020,7 @@
         <v>230</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -3040,7 +3040,7 @@
         <v>229</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -3060,7 +3060,7 @@
         <v>231</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -3080,7 +3080,7 @@
         <v>232</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -3100,7 +3100,7 @@
         <v>233</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -3120,7 +3120,7 @@
         <v>234</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -3140,7 +3140,7 @@
         <v>235</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -3160,7 +3160,7 @@
         <v>236</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -3180,7 +3180,7 @@
         <v>237</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -3200,7 +3200,7 @@
         <v>238</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -3220,7 +3220,7 @@
         <v>239</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -3240,7 +3240,7 @@
         <v>240</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -3260,7 +3260,7 @@
         <v>241</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -3277,10 +3277,10 @@
         <v>106</v>
       </c>
       <c r="D52" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -3300,7 +3300,7 @@
         <v>242</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -3340,7 +3340,7 @@
         <v>244</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -3360,7 +3360,7 @@
         <v>245</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -3380,7 +3380,7 @@
         <v>246</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -3400,7 +3400,7 @@
         <v>247</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -3420,7 +3420,7 @@
         <v>248</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -3440,7 +3440,7 @@
         <v>249</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -3460,7 +3460,7 @@
         <v>250</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -3480,7 +3480,7 @@
         <v>251</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -3500,7 +3500,7 @@
         <v>252</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -3520,7 +3520,7 @@
         <v>253</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -3540,7 +3540,7 @@
         <v>254</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -3560,7 +3560,7 @@
         <v>255</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -3580,7 +3580,7 @@
         <v>256</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -3600,7 +3600,7 @@
         <v>257</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -3620,7 +3620,7 @@
         <v>258</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -3640,7 +3640,7 @@
         <v>259</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -3660,7 +3660,7 @@
         <v>260</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -3680,7 +3680,7 @@
         <v>261</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -3700,7 +3700,7 @@
         <v>262</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -3740,7 +3740,7 @@
         <v>264</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -3760,7 +3760,7 @@
         <v>265</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -3780,7 +3780,7 @@
         <v>266</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -3800,7 +3800,7 @@
         <v>267</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -3820,7 +3820,7 @@
         <v>268</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -3840,7 +3840,7 @@
         <v>269</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -3860,7 +3860,7 @@
         <v>270</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -3880,7 +3880,7 @@
         <v>271</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -3900,7 +3900,7 @@
         <v>272</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -3920,7 +3920,7 @@
         <v>273</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -3940,7 +3940,7 @@
         <v>274</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -3960,7 +3960,7 @@
         <v>275</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -3980,7 +3980,7 @@
         <v>276</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -4000,7 +4000,7 @@
         <v>277</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -4020,7 +4020,7 @@
         <v>278</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -4040,7 +4040,7 @@
         <v>279</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -4060,7 +4060,7 @@
         <v>280</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -4080,7 +4080,7 @@
         <v>281</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -4100,7 +4100,7 @@
         <v>282</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -4120,7 +4120,7 @@
         <v>283</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -4140,7 +4140,7 @@
         <v>284</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -4160,7 +4160,7 @@
         <v>285</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -4180,7 +4180,7 @@
         <v>286</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -4200,7 +4200,7 @@
         <v>287</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -4211,16 +4211,16 @@
         <v>200</v>
       </c>
       <c r="B99" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C99" t="s">
         <v>201</v>
       </c>
       <c r="D99" t="s">
+        <v>393</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="F99">
         <v>0</v>

--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="414">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1877,6 +1877,58 @@
     <t>+[color=#D8D8D8] 15% [/color]移动速度
 +[color=#D8D8D8] 10/14/16/18/20 [/color]主属性
 +[color=#D8D8D8] 20 [/color]攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/初级天赋书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级天赋书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活天赋技能的道具.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/中级天赋书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/高级天赋书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/史诗级天赋书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/高级天赋书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/初级天赋书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/中级天赋书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级天赋书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级天赋书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/史诗级天赋书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗级天赋书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2230,10 +2282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4266,6 +4318,86 @@
         <v>0</v>
       </c>
     </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>201</v>
+      </c>
+      <c r="B102" t="s">
+        <v>408</v>
+      </c>
+      <c r="C102" t="s">
+        <v>401</v>
+      </c>
+      <c r="D102" t="s">
+        <v>402</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>202</v>
+      </c>
+      <c r="B103" t="s">
+        <v>404</v>
+      </c>
+      <c r="C103" t="s">
+        <v>409</v>
+      </c>
+      <c r="D103" t="s">
+        <v>410</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>203</v>
+      </c>
+      <c r="B104" t="s">
+        <v>405</v>
+      </c>
+      <c r="C104" t="s">
+        <v>407</v>
+      </c>
+      <c r="D104" t="s">
+        <v>411</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>204</v>
+      </c>
+      <c r="B105" t="s">
+        <v>406</v>
+      </c>
+      <c r="C105" t="s">
+        <v>412</v>
+      </c>
+      <c r="D105" t="s">
+        <v>413</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="423">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1929,6 +1929,43 @@
   </si>
   <si>
     <t>史诗级天赋书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后增加1/2/4/8/16仓库位置.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后增加今日可获取剩余经验5000/10000/20000/40000/80000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后直接增加经验3000/6000/12000/24000/48000,但不会超过今日可获取剩余经验。
+使用前请确保有足够的今日可获取剩余经验。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级仓库位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/初级仓库位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验上限丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/经验上限丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/经验丹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2282,10 +2319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4398,6 +4435,57 @@
         <v>1</v>
       </c>
     </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>205</v>
+      </c>
+      <c r="B106" t="s">
+        <v>418</v>
+      </c>
+      <c r="D106" t="s">
+        <v>417</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>206</v>
+      </c>
+      <c r="B107" t="s">
+        <v>420</v>
+      </c>
+      <c r="D107" t="s">
+        <v>419</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>207</v>
+      </c>
+      <c r="B108" t="s">
+        <v>422</v>
+      </c>
+      <c r="D108" t="s">
+        <v>421</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="431">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1966,6 +1966,38 @@
   </si>
   <si>
     <t>ui://GameUI/经验丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级竞技宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/初级竞技宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级竞技宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/中级竞技宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级竞技宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/高级竞技宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗级竞技宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/史诗级竞技宝箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2319,10 +2351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4486,6 +4518,74 @@
         <v>1</v>
       </c>
     </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>208</v>
+      </c>
+      <c r="B109" t="s">
+        <v>424</v>
+      </c>
+      <c r="D109" t="s">
+        <v>423</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>209</v>
+      </c>
+      <c r="B110" t="s">
+        <v>426</v>
+      </c>
+      <c r="D110" t="s">
+        <v>425</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>210</v>
+      </c>
+      <c r="B111" t="s">
+        <v>428</v>
+      </c>
+      <c r="D111" t="s">
+        <v>427</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>211</v>
+      </c>
+      <c r="B112" t="s">
+        <v>430</v>
+      </c>
+      <c r="D112" t="s">
+        <v>429</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="433">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1998,6 +1998,14 @@
   </si>
   <si>
     <t>ui://GameUI/史诗级竞技宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场经验丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后增加竞技场经验50/100/200/400/800</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2351,10 +2359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4586,6 +4594,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>212</v>
+      </c>
+      <c r="B113" t="s">
+        <v>420</v>
+      </c>
+      <c r="D113" t="s">
+        <v>431</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -1724,10 +1724,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+[color=#D8D8D8] 250/350/400/450/500 [/color]生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+[color=#D8D8D8] 175/245/280/315/350 [/color]生命值
 +[color=#D8D8D8] 175/245/280/315/350 [/color]魔法值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1940,11 +1936,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用后直接增加经验3000/6000/12000/24000/48000,但不会超过今日可获取剩余经验。
-使用前请确保有足够的今日可获取剩余经验。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>初级仓库位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2006,6 +1997,15 @@
   </si>
   <si>
     <t>使用后增加竞技场经验50/100/200/400/800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 250/350/400/450/500 [/color]生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后直接增加经验3000/6000/12000/24000/25000,但不会超过今日可获取剩余经验。
+使用前请确保有足够的今日可获取剩余经验,[color=#ff2222]5级才能出售[/color]。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2361,8 +2361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+    <sheetView tabSelected="1" topLeftCell="B94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2406,7 +2406,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>295</v>
@@ -2426,7 +2426,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>296</v>
@@ -2446,7 +2446,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>297</v>
@@ -2486,7 +2486,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>298</v>
@@ -2506,7 +2506,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>299</v>
@@ -2526,7 +2526,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>300</v>
@@ -2629,7 +2629,7 @@
         <v>208</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2669,7 +2669,7 @@
         <v>210</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2869,7 +2869,7 @@
         <v>220</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2909,7 +2909,7 @@
         <v>222</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2986,7 +2986,7 @@
         <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>323</v>
@@ -3026,7 +3026,7 @@
         <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>320</v>
@@ -3046,7 +3046,7 @@
         <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>313</v>
@@ -3066,7 +3066,7 @@
         <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>314</v>
@@ -3109,7 +3109,7 @@
         <v>227</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -3149,7 +3149,7 @@
         <v>230</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -3406,10 +3406,10 @@
         <v>106</v>
       </c>
       <c r="D52" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -3649,7 +3649,7 @@
         <v>253</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -3809,7 +3809,7 @@
         <v>261</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -3829,7 +3829,7 @@
         <v>262</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -3889,7 +3889,7 @@
         <v>265</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -3989,7 +3989,7 @@
         <v>270</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -4309,7 +4309,7 @@
         <v>286</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -4329,7 +4329,7 @@
         <v>287</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>373</v>
+        <v>431</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -4340,16 +4340,16 @@
         <v>200</v>
       </c>
       <c r="B99" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C99" t="s">
         <v>201</v>
       </c>
       <c r="D99" t="s">
+        <v>392</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -4400,16 +4400,16 @@
         <v>201</v>
       </c>
       <c r="B102" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C102" t="s">
+        <v>400</v>
+      </c>
+      <c r="D102" t="s">
         <v>401</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B103" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C103" t="s">
+        <v>408</v>
+      </c>
+      <c r="D103" t="s">
         <v>409</v>
       </c>
-      <c r="D103" t="s">
-        <v>410</v>
-      </c>
       <c r="E103" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -4440,16 +4440,16 @@
         <v>203</v>
       </c>
       <c r="B104" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C104" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D104" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -4460,16 +4460,16 @@
         <v>204</v>
       </c>
       <c r="B105" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C105" t="s">
+        <v>411</v>
+      </c>
+      <c r="D105" t="s">
         <v>412</v>
       </c>
-      <c r="D105" t="s">
-        <v>413</v>
-      </c>
       <c r="E105" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -4480,13 +4480,13 @@
         <v>205</v>
       </c>
       <c r="B106" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D106" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -4497,13 +4497,13 @@
         <v>206</v>
       </c>
       <c r="B107" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D107" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -4514,13 +4514,13 @@
         <v>207</v>
       </c>
       <c r="B108" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D108" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -4531,13 +4531,13 @@
         <v>208</v>
       </c>
       <c r="B109" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D109" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -4548,13 +4548,13 @@
         <v>209</v>
       </c>
       <c r="B110" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D110" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -4565,13 +4565,13 @@
         <v>210</v>
       </c>
       <c r="B111" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D111" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -4582,13 +4582,13 @@
         <v>211</v>
       </c>
       <c r="B112" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D112" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -4599,13 +4599,13 @@
         <v>212</v>
       </c>
       <c r="B113" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D113" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F113">
         <v>1</v>

--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="436">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2006,6 +2006,18 @@
   <si>
     <t>使用后直接增加经验3000/6000/12000/24000/25000,但不会超过今日可获取剩余经验。
 使用前请确保有足够的今日可获取剩余经验,[color=#ff2222]5级才能出售[/color]。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼化装备的必要材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼化材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/炼化材料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2359,10 +2371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4611,6 +4623,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>213</v>
+      </c>
+      <c r="B114" t="s">
+        <v>435</v>
+      </c>
+      <c r="D114" t="s">
+        <v>434</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -639,15 +639,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+[color=#D8D8D8] 13 [/color]所有属性
-+[color=#D8D8D8] 6.5 [/color]生命恢复
-+[color=#D8D8D8] 5 [/color]魔法恢复
-[color=#D8D8D8]被动:法术抵抗 [/color]
-抵挡一次大部分指向性法术
-CD：13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item/Icon/强袭胸甲 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2018,6 +2009,15 @@
   </si>
   <si>
     <t>ui://GameUI/炼化材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 13/17/20/22/24 [/color]所有属性
++[color=#D8D8D8] 6.5 [/color]生命恢复
++[color=#D8D8D8] 5/7/8/9/10 [/color]魔法恢复
+[color=#D8D8D8]被动:法术抵抗 [/color]
+抵挡一次大部分指向性法术
+CD：15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2373,8 +2373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2404,7 +2404,7 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2418,10 +2418,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2438,10 +2438,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2458,10 +2458,10 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2478,10 +2478,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2498,10 +2498,10 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2518,10 +2518,10 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2538,10 +2538,10 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2558,10 +2558,10 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2578,10 +2578,10 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2598,10 +2598,10 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2618,10 +2618,10 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2638,10 +2638,10 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2658,10 +2658,10 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2678,10 +2678,10 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2698,10 +2698,10 @@
         <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2718,10 +2718,10 @@
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2738,10 +2738,10 @@
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2758,10 +2758,10 @@
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2778,10 +2778,10 @@
         <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2798,10 +2798,10 @@
         <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -2818,10 +2818,10 @@
         <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -2838,10 +2838,10 @@
         <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -2858,10 +2858,10 @@
         <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -2878,10 +2878,10 @@
         <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2898,10 +2898,10 @@
         <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -2918,10 +2918,10 @@
         <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2938,10 +2938,10 @@
         <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2958,10 +2958,10 @@
         <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2981,7 +2981,7 @@
         <v>61</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -2998,10 +2998,10 @@
         <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -3018,7 +3018,7 @@
         <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>86</v>
@@ -3038,10 +3038,10 @@
         <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -3058,10 +3058,10 @@
         <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -3078,10 +3078,10 @@
         <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -3098,10 +3098,10 @@
         <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -3118,10 +3118,10 @@
         <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -3138,10 +3138,10 @@
         <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -3158,10 +3158,10 @@
         <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -3178,10 +3178,10 @@
         <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -3198,10 +3198,10 @@
         <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -3218,10 +3218,10 @@
         <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -3238,10 +3238,10 @@
         <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -3258,10 +3258,10 @@
         <v>91</v>
       </c>
       <c r="D44" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -3278,10 +3278,10 @@
         <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -3298,10 +3298,10 @@
         <v>95</v>
       </c>
       <c r="D46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -3318,10 +3318,10 @@
         <v>97</v>
       </c>
       <c r="D47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -3338,10 +3338,10 @@
         <v>99</v>
       </c>
       <c r="D48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -3358,10 +3358,10 @@
         <v>101</v>
       </c>
       <c r="D49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -3378,10 +3378,10 @@
         <v>103</v>
       </c>
       <c r="D50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -3398,10 +3398,10 @@
         <v>105</v>
       </c>
       <c r="D51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -3418,10 +3418,10 @@
         <v>106</v>
       </c>
       <c r="D52" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -3438,10 +3438,10 @@
         <v>108</v>
       </c>
       <c r="D53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -3458,7 +3458,7 @@
         <v>110</v>
       </c>
       <c r="D54" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>112</v>
@@ -3478,10 +3478,10 @@
         <v>113</v>
       </c>
       <c r="D55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -3498,10 +3498,10 @@
         <v>115</v>
       </c>
       <c r="D56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -3518,10 +3518,10 @@
         <v>117</v>
       </c>
       <c r="D57" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -3538,10 +3538,10 @@
         <v>120</v>
       </c>
       <c r="D58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -3558,10 +3558,10 @@
         <v>122</v>
       </c>
       <c r="D59" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -3578,10 +3578,10 @@
         <v>124</v>
       </c>
       <c r="D60" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -3598,10 +3598,10 @@
         <v>126</v>
       </c>
       <c r="D61" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -3618,10 +3618,10 @@
         <v>128</v>
       </c>
       <c r="D62" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -3638,10 +3638,10 @@
         <v>130</v>
       </c>
       <c r="D63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -3658,10 +3658,10 @@
         <v>132</v>
       </c>
       <c r="D64" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -3678,10 +3678,10 @@
         <v>134</v>
       </c>
       <c r="D65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -3698,10 +3698,10 @@
         <v>136</v>
       </c>
       <c r="D66" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -3718,10 +3718,10 @@
         <v>138</v>
       </c>
       <c r="D67" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -3738,10 +3738,10 @@
         <v>140</v>
       </c>
       <c r="D68" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -3758,10 +3758,10 @@
         <v>142</v>
       </c>
       <c r="D69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -3778,10 +3778,10 @@
         <v>144</v>
       </c>
       <c r="D70" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -3798,10 +3798,10 @@
         <v>146</v>
       </c>
       <c r="D71" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -3818,10 +3818,10 @@
         <v>148</v>
       </c>
       <c r="D72" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -3838,10 +3838,10 @@
         <v>150</v>
       </c>
       <c r="D73" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -3858,10 +3858,10 @@
         <v>152</v>
       </c>
       <c r="D74" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>154</v>
+        <v>435</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -3872,16 +3872,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C75" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D75" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -3892,16 +3892,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C76" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D76" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -3912,16 +3912,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D77" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -3932,16 +3932,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D78" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -3952,16 +3952,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D79" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -3972,16 +3972,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C80" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D80" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -3992,16 +3992,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C81" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D81" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -4012,16 +4012,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C82" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D82" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -4032,16 +4032,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D83" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -4052,16 +4052,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C84" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D84" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -4072,16 +4072,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C85" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D85" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -4092,16 +4092,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C86" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D86" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -4112,16 +4112,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C87" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D87" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -4132,16 +4132,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C88" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D88" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -4152,16 +4152,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C89" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D89" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -4172,16 +4172,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D90" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -4192,16 +4192,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C91" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D91" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -4212,16 +4212,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C92" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D92" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -4232,16 +4232,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C93" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D93" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -4252,16 +4252,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C94" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D94" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -4272,16 +4272,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C95" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -4292,16 +4292,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C96" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D96" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -4312,16 +4312,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C97" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D97" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -4332,16 +4332,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C98" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D98" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -4352,16 +4352,16 @@
         <v>200</v>
       </c>
       <c r="B99" t="s">
+        <v>390</v>
+      </c>
+      <c r="C99" t="s">
+        <v>200</v>
+      </c>
+      <c r="D99" t="s">
         <v>391</v>
       </c>
-      <c r="C99" t="s">
-        <v>201</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="E99" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -4372,16 +4372,16 @@
         <v>10000</v>
       </c>
       <c r="B100" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C100" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D100" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -4392,16 +4392,16 @@
         <v>10001</v>
       </c>
       <c r="B101" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C101" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D101" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -4412,16 +4412,16 @@
         <v>201</v>
       </c>
       <c r="B102" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C102" t="s">
+        <v>399</v>
+      </c>
+      <c r="D102" t="s">
         <v>400</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -4432,16 +4432,16 @@
         <v>202</v>
       </c>
       <c r="B103" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C103" t="s">
+        <v>407</v>
+      </c>
+      <c r="D103" t="s">
         <v>408</v>
       </c>
-      <c r="D103" t="s">
-        <v>409</v>
-      </c>
       <c r="E103" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -4452,16 +4452,16 @@
         <v>203</v>
       </c>
       <c r="B104" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C104" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D104" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -4472,16 +4472,16 @@
         <v>204</v>
       </c>
       <c r="B105" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C105" t="s">
+        <v>410</v>
+      </c>
+      <c r="D105" t="s">
         <v>411</v>
       </c>
-      <c r="D105" t="s">
-        <v>412</v>
-      </c>
       <c r="E105" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -4492,13 +4492,13 @@
         <v>205</v>
       </c>
       <c r="B106" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D106" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -4509,13 +4509,13 @@
         <v>206</v>
       </c>
       <c r="B107" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D107" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -4526,13 +4526,13 @@
         <v>207</v>
       </c>
       <c r="B108" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D108" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -4543,13 +4543,13 @@
         <v>208</v>
       </c>
       <c r="B109" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D109" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -4560,13 +4560,13 @@
         <v>209</v>
       </c>
       <c r="B110" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D110" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -4577,13 +4577,13 @@
         <v>210</v>
       </c>
       <c r="B111" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D111" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -4594,13 +4594,13 @@
         <v>211</v>
       </c>
       <c r="B112" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D112" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -4611,13 +4611,13 @@
         <v>212</v>
       </c>
       <c r="B113" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D113" t="s">
+        <v>428</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -4628,13 +4628,13 @@
         <v>213</v>
       </c>
       <c r="B114" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D114" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F114">
         <v>0</v>

--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -1354,14 +1354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+[color=#D8D8D8] 15% [/color]移动速度
-+[color=#D8D8D8] 250/350/400/450/500 [/color]魔法
-[color=#D8D8D8]主动:补魔 [/color]
-立即恢复12米内的友方单位160魔法
-CD:55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+[color=#D8D8D8] 6/8/10/11/12 [/color]所有属性
 +[color=#D8D8D8] 1.25 [/color]魔法恢复
 +[color=#D8D8D8] 0.2 [/color]移动速度
@@ -1371,32 +1363,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[color=#D8D8D8]被动:吸血 [/color]
-攻击敌人时恢复造成伤害15%/21%/24%/27%/30%的血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[color=#D8D8D8]被动:弗拉迪米尔光环 [/color]
-为12米内的友方单位提供吸血，1.5点/秒的魔法恢复速度,15%额外攻击力,4点护甲。
-吸血效果近战15%/21%/24%/27%/30%,远程10%/14%/16%/18%/20%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+[color=#D8D8D8] 2/3/4/5/6 [/color]所有属性
 +[color=#D8D8D8] 5/7/8/9/10 [/color]护甲
 [color=#D8D8D8]主动:防御提升 [/color]
 为所有12米范围内的友方单位提升2点护甲,持续30秒。
 CD:30   耗蓝:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 5/7/8/9/10 [/color]所有属性
-+[color=#D8D8D8] 5/7/8/9/10 [/color]护甲
-[color=#D8D8D8]主动:回复 [/color]
-为12米内的友方单位回复275/385/440/495/550点生命值
-CD:65    耗蓝:225
-[color=#D8D8D8]被动:梅肯斯姆光环 [/color]
-为12米内的友方单位提供2点护甲,3.5点/每秒的生命恢复速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1452,25 +1423,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+[color=#D8D8D8] 25 [/color]智力
-+[color=#D8D8D8] 30 [/color]攻击速度
-+[color=#D8D8D8] 30 [/color]攻击力
-+[color=#D8D8D8] 5.5 [/color]魔法恢复
-[color=#D8D8D8]主动:灵魂燃烧 [/color]
-沉默目标5秒,伤害加深30%/42%/48%/54%/60%
-施法距离:9米
-CD:18    耗蓝:100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 13 [/color]生命恢复
-+[color=#D8D8D8] 12 [/color]魔法恢复
-[color=#D8D8D8]主动:完全重置 [/color]
-重置所有物品和技能的CD
-CD:195/180/170/160/150    耗蓝:375</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+[color=#D8D8D8] 10 [/color]力量
 +[color=#D8D8D8] 10 [/color]敏捷
 +[color=#D8D8D8] 35/49/56/63/70 [/color]智力
@@ -1505,17 +1457,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+[color=#D8D8D8] 40 [/color]敏捷
-+[color=#D8D8D8] 10 [/color]力量
-+[color=#D8D8D8] 10 [/color]智力
-[color=#D8D8D8]主动:虚化冲击 [/color]
-将目标变为虚化状态,受到魔法伤害增加40%,并且不能攻击和被攻击。持续4秒。
-如果目标为敌人则造成400/500/600/700/800的魔法伤害，并减速80%。
-施法距离:8米
-CD:20   耗蓝:100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+[color=#D8D8D8] 52/73/83/94/104 [/color]攻击力
 +[color=#D8D8D8] 10 [/color]攻击速度
 [color=#D8D8D8]被动:穿刺 [/color]
@@ -1526,22 +1467,6 @@
     <t>+[color=#D8D8D8] 80/112/128/144/160 [/color]攻击力
 [color=#D8D8D8]被动:致命一击 [/color]
 攻击时有30%的几率造成235%的伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 25/35/40/45/50 [/color]攻击力
-+[color=#D8D8D8] 10 [/color]力量
-+[color=#D8D8D8] 250 [/color]生命值
-+[color=#D8D8D8] 10 [/color]生命恢复
-[color=#D8D8D8]被动:重击 [/color]
-近战英雄攻击时有20%的几率击晕目标1.5秒,并造成100点额外伤害,远程英雄击晕概率为10%
-CD:2.3秒
-[color=#D8D8D8]被动:伤害格挡 [/color]
-有50%的几率格挡伤害,近战英雄格挡70点伤害,远程英雄格挡35点伤害。
-[color=#D8D8D8]主动:强击 [/color]
-击晕一个目标,持续2秒
-施法距离:2米
-CD:35   耗蓝:75</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1571,32 +1496,6 @@
   <si>
     <t>+[color=#D8D8D8] 425/595/680/765/850 [/color]生命值
 +[color=#D8D8D8] 425/595/680/765/850 [/color]魔法值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 10 [/color]力量
-+[color=#D8D8D8] 24/34/38/43/48 [/color]攻击力
-[color=#D8D8D8]主动:天神下凡 [/color]
-获得技能免疫和100%的魔法抗性,持续8秒。
-CD：70
-弱驱散</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 30 [/color]智力
-+[color=#D8D8D8] 15 [/color]护甲
-[color=#D8D8D8]主动:极寒冲击 [/color]
-对9米内的敌人造成200/280/320/360/400点魔法伤害,并减速40%,持续4秒。
-CD：30    耗蓝:100
-[color=#D8D8D8]被动:霜冷光环 [/color]
-降低12米内的敌人45点攻击速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 30 [/color]攻击速度
-+[color=#D8D8D8] 10/14/16/18/20 [/color]护甲
-[color=#D8D8D8]被动:强袭光环 [/color]
-12米内的友方单位提升25点攻击速度和5点护甲,敌方单位削弱5点护甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1616,61 +1515,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+[color=#D8D8D8] 24/34/38/43/48 [/color]攻击力
-[color=#D8D8D8]被动:连环闪电 [/color]
-攻击有25%的几率释放一道连环闪电，在9米内的4个目标之间跳跃，造成160点魔法伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+[color=#D8D8D8] 50/70/80/90/100 [/color]攻击力
 [color=#D8D8D8]被动:腐蚀 [/color]
 物理攻击将降低目标7点护甲,持续15秒,不叠加。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+[color=#D8D8D8] 25% [/color]闪避
-+[color=#D8D8D8] 25 [/color]攻击力
-+[color=#D8D8D8] 20/28/32/36/40 [/color]力量
-+[color=#D8D8D8] 14% [/color]状态抗性
-[color=#D8D8D8]主动:缴械 [/color]
-阻止目标进行物理攻击,持续5/3秒(远程/近战)
-施法距离:6
-CD:18    耗蓝:100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+[color=#D8D8D8] 16/22/26/29/32 [/color]敏捷
 +[color=#D8D8D8] 12 [/color]攻击速度
 +[color=#D8D8D8] 20 [/color]移动速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 16/22/26/29/32 [/color]力量
-+[color=#D8D8D8] 16/22/26/29/32 [/color]敏捷
-+[color=#D8D8D8] 16% [/color]状态抗性
-+[color=#D8D8D8] 16 [/color]攻击速度
-+[color=#D8D8D8] 30 [/color]移动速度
-+[color=#D8D8D8] 12 [/color]攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 25/35/40/45/50 [/color]所有属性
-+[color=#D8D8D8] 225 [/color]生命值
-+[color=#D8D8D8] 250 [/color]魔法值
-[color=#D8D8D8]被动:霜冻攻击 [/color]
-攻击附带霜冻效果,持续3秒,减缓远程敌人单位45%的移动速度并降低45点攻击速度。
-减缓近战敌人单位20%的移动速度并降低20点攻击速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 25/35/40/45/50 [/color]力量
-+[color=#D8D8D8] 25/35/40/45/50 [/color]攻击力
-+[color=#D8D8D8] 30% [/color]状态抗性
-[color=#D8D8D8]主动:不洁狂热 [/color]
-吸血效果提升200%,持续5秒。
-CD:35
-[color=#D8D8D8]被动:吸血 [/color]
-每次攻击根据造成的伤害回复25%的生命值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1803,6 +1656,229 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/夺宝奇兵宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱中装有很多装备,打开后会随机获得其中一种。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹风书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 45/59/67/76/84 [/color]力量
++[color=#D8D8D8] 400/560/640/720/800 [/color]生命值
++[color=#D8D8D8] 50% [/color]生命恢复增强
+[color=#D8D8D8]被动:生命恢复 [/color]
+每秒恢复最大生命值的5%。
+受到攻击的7秒内将失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 15% [/color]移动速度
++[color=#D8D8D8] 10/14/16/18/20 [/color]主属性
++[color=#D8D8D8] 20 [/color]攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/初级天赋书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级天赋书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活天赋技能的道具.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/中级天赋书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/高级天赋书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/史诗级天赋书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/高级天赋书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/初级天赋书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/中级天赋书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级天赋书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级天赋书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Icon/史诗级天赋书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗级天赋书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后增加1/2/4/8/16仓库位置.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后增加今日可获取剩余经验5000/10000/20000/40000/80000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级仓库位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/初级仓库位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验上限丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/经验上限丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/经验丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级竞技宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/初级竞技宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级竞技宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/中级竞技宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级竞技宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/高级竞技宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗级竞技宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/史诗级竞技宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场经验丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后增加竞技场经验50/100/200/400/800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 250/350/400/450/500 [/color]生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后直接增加经验3000/6000/12000/24000/25000,但不会超过今日可获取剩余经验。
+使用前请确保有足够的今日可获取剩余经验,[color=#ff2222]5级才能出售[/color]。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼化装备的必要材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼化材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/炼化材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 13/17/20/22/24 [/color]所有属性
++[color=#D8D8D8] 6.5 [/color]生命恢复
++[color=#D8D8D8] 5/7/8/9/10 [/color]魔法恢复
+[color=#D8D8D8]被动:法术抵抗 [/color]
+抵挡一次大部分指向性法术
+CD：15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#D8D8D8]被动:弗拉迪米尔光环 [/color]
+为12米内的友方单位提供吸血，1.5点/秒的魔法恢复速度,15%额外攻击力,4点护甲。
+吸血效果近战15%/17%/19%/21%/23%,远程10%/11%/12%/13%/14%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#D8D8D8]被动:吸血 [/color]
+攻击敌人时恢复造成伤害10%/12%/14%/16%/18%的血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 30/35/42/50/60 [/color]攻击速度
++[color=#D8D8D8] 10/14/16/18/20 [/color]护甲
+[color=#D8D8D8]被动:强袭光环 [/color]
+12米内的友方单位提升25点攻击速度和5点护甲,敌方单位削弱5/6/7/8/9点护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 30 [/color]智力
++[color=#D8D8D8] 15 [/color]护甲
+[color=#D8D8D8]主动:极寒冲击 [/color]
+对9米内的敌人造成200/280/320/360/400点魔法伤害,并减速40%,持续4秒。
+CD：30    耗蓝:100
+[color=#D8D8D8]被动:霜冷光环 [/color]
+降低12米内的敌人45/52/60/70/85点攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 24/34/38/43/48 [/color]攻击力
+[color=#D8D8D8]被动:连环闪电 [/color]
+攻击有25%的几率释放一道连环闪电，在9米内的4个目标之间跳跃，造成160点魔法伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>+[color=#D8D8D8] 20/28/32/36/40 [/color]敏捷
 +[color=#D8D8D8] 10 [/color]智力
 [color=#D8D8D8]被动:破法 [/color]
@@ -1810,43 +1886,61 @@
 [color=#D8D8D8]主动:阻止 [/color]
 减缓目标移动速度50%,持续4秒
 施法距离:6米
-CD:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/夺宝奇兵宝箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝箱中装有很多装备,打开后会随机获得其中一种。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿戒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吹风书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 45/59/67/76/84 [/color]力量
-+[color=#D8D8D8] 400/560/640/720/800 [/color]生命值
-+[color=#D8D8D8] 50% [/color]生命恢复增强
-[color=#D8D8D8]被动:生命恢复 [/color]
-每秒恢复最大生命值的5%。
-受到攻击的7秒内将失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 35/45/50/55/60 [/color]敏捷
+CD:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 16/22/26/29/32 [/color]力量
++[color=#D8D8D8] 16/22/26/29/32 [/color]敏捷
++[color=#D8D8D8] 16% [/color]状态抗性
++[color=#D8D8D8] 16 [/color]攻击速度
++[color=#D8D8D8] 30 [/color]移动速度
++[color=#D8D8D8] 12 [/color]攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 25/35/40/45/50 [/color]所有属性
++[color=#D8D8D8] 225 [/color]生命值
++[color=#D8D8D8] 250 [/color]魔法值
+[color=#D8D8D8]被动:霜冻攻击 [/color]
+攻击附带霜冻效果,持续3秒,减缓远程敌人单位45%的移动速度并降低45/52/60/70/85点攻击速度。
+减缓近战敌人单位20%的移动速度并降低20点攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 25/35/40/45/50 [/color]力量
 +[color=#D8D8D8] 25/35/40/45/50 [/color]攻击力
-+[color=#D8D8D8] 30 [/color]攻击速度
-+[color=#D8D8D8] 35% [/color]闪避</t>
++[color=#D8D8D8] 30% [/color]状态抗性
+[color=#D8D8D8]主动:不洁狂热 [/color]
+吸血效果提升200%,持续5秒。
+CD:35
+[color=#D8D8D8]被动:吸血 [/color]
+每次攻击根据造成的伤害回复25%的生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 25/35/40/45/50 [/color]攻击力
++[color=#D8D8D8] 10/12/14/16/20 [/color]力量
++[color=#D8D8D8] 250/300/350/400/450 [/color]生命值
++[color=#D8D8D8] 10/12/14/16/20 [/color]生命恢复
+[color=#D8D8D8]被动:重击 [/color]
+近战英雄攻击时有20%的几率击晕目标1.5秒,并造成100点额外伤害,远程英雄击晕概率为10%
+CD:2.3秒
+[color=#D8D8D8]被动:伤害格挡 [/color]
+有50%的几率格挡伤害,近战英雄格挡70点伤害,远程英雄格挡35点伤害。
+[color=#D8D8D8]主动:强击 [/color]
+击晕一个目标,持续2秒
+施法距离:2米
+CD:35   耗蓝:75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 10 [/color]力量
++[color=#D8D8D8] 24/34/38/43/48 [/color]攻击力
+[color=#D8D8D8]主动:天神下凡 [/color]
+获得技能免疫和100%的魔法抗性,持续7/7.5/8/8.5/9秒。
+CD：70
+弱驱散</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1857,167 +1951,73 @@
 +[color=#D8D8D8] 200% [/color]魔法恢复速度
 [color=#D8D8D8]主动:血之契约 [/color]
 立即恢复最大魔法值20%/28%/32%/36%/40%的生命值
-CD：250</t>
+CD：60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 25% [/color]闪避
++[color=#D8D8D8] 25 [/color]攻击力
++[color=#D8D8D8] 20/28/32/36/40 [/color]力量
++[color=#D8D8D8] 14% [/color]状态抗性
+[color=#D8D8D8]主动:缴械 [/color]
+阻止目标进行物理攻击,持续5/3秒(远程/近战)
+施法距离:6
+CD:18    耗蓝:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 10 [/color]敏捷
++[color=#D8D8D8] 10 [/color]力量
++[color=#D8D8D8] 40 [/color]智力
+[color=#D8D8D8]主动:虚化冲击 [/color]
+将目标变为虚化状态,受到魔法伤害增加40%,并且不能攻击和被攻击。持续4秒。
+如果目标为敌人则造成400/500/600/700/800的魔法伤害，并减速80%。
+施法距离:8米
+CD:20   耗蓝:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 13 [/color]生命恢复
++[color=#D8D8D8] 12 [/color]魔法恢复
+[color=#D8D8D8]主动:完全重置 [/color]
+重置所有物品和技能的CD
+CD:120/100/80/60/40    耗蓝:375</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 25/28/30/32/35 [/color]智力
++[color=#D8D8D8] 30/35/40/45/50 [/color]攻击速度
++[color=#D8D8D8] 30 [/color]攻击力
++[color=#D8D8D8] 5.5/6/7/8/9 [/color]魔法恢复
+[color=#D8D8D8]主动:灵魂燃烧 [/color]
+沉默目标5秒,伤害加深30%/42%/48%/54%/60%
+施法距离:9米
+CD:18    耗蓝:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 5/7/8/9/10 [/color]所有属性
++[color=#D8D8D8] 5/7/8/9/10 [/color]护甲
+[color=#D8D8D8]主动:回复 [/color]
+为12米内的友方单位回复275/385/440/495/550点生命值
+CD:25    耗蓝:100
+[color=#D8D8D8]被动:梅肯斯姆光环 [/color]
+为12米内的友方单位提供2点护甲,3.5点/每秒的生命恢复速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+[color=#D8D8D8] 15% [/color]移动速度
-+[color=#D8D8D8] 10/14/16/18/20 [/color]主属性
-+[color=#D8D8D8] 20 [/color]攻击速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item/Icon/初级天赋书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级天赋书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活天赋技能的道具.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/中级天赋书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/高级天赋书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/史诗级天赋书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item/Icon/高级天赋书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/初级天赋书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item/Icon/中级天赋书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级天赋书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级天赋书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item/Icon/史诗级天赋书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>史诗级天赋书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用后增加1/2/4/8/16仓库位置.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用后增加今日可获取剩余经验5000/10000/20000/40000/80000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级仓库位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/初级仓库位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验上限丹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/经验上限丹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验丹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/经验丹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级竞技宝箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/初级竞技宝箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级竞技宝箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/中级竞技宝箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级竞技宝箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/高级竞技宝箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>史诗级竞技宝箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/史诗级竞技宝箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞技场经验丹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用后增加竞技场经验50/100/200/400/800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 250/350/400/450/500 [/color]生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用后直接增加经验3000/6000/12000/24000/25000,但不会超过今日可获取剩余经验。
-使用前请确保有足够的今日可获取剩余经验,[color=#ff2222]5级才能出售[/color]。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼化装备的必要材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼化材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/炼化材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 13/17/20/22/24 [/color]所有属性
-+[color=#D8D8D8] 6.5 [/color]生命恢复
-+[color=#D8D8D8] 5/7/8/9/10 [/color]魔法恢复
-[color=#D8D8D8]被动:法术抵抗 [/color]
-抵挡一次大部分指向性法术
-CD：15</t>
++[color=#D8D8D8] 250/350/400/450/500 [/color]魔法
+[color=#D8D8D8]主动:补魔 [/color]
+立即恢复12米内的友方单位160魔法
+CD:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 35/45/50/55/60 [/color]敏捷
++[color=#D8D8D8] 25/35/40/45/50 [/color]攻击力
++[color=#D8D8D8] 35/40/45/50/55 [/color]攻击速度
++[color=#D8D8D8] 35% [/color]闪避</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2373,8 +2373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2418,7 +2418,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>294</v>
@@ -2438,7 +2438,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>295</v>
@@ -2458,7 +2458,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>296</v>
@@ -2498,7 +2498,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>297</v>
@@ -2518,7 +2518,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>298</v>
@@ -2538,7 +2538,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>299</v>
@@ -2641,7 +2641,7 @@
         <v>207</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2681,7 +2681,7 @@
         <v>209</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2881,7 +2881,7 @@
         <v>219</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2921,7 +2921,7 @@
         <v>221</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2981,7 +2981,7 @@
         <v>61</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>327</v>
+        <v>418</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -2998,7 +2998,7 @@
         <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>322</v>
@@ -3038,7 +3038,7 @@
         <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>319</v>
@@ -3058,7 +3058,7 @@
         <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>312</v>
@@ -3078,7 +3078,7 @@
         <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>313</v>
@@ -3121,7 +3121,7 @@
         <v>226</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -3161,7 +3161,7 @@
         <v>229</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -3221,7 +3221,7 @@
         <v>231</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -3261,7 +3261,7 @@
         <v>233</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>325</v>
+        <v>434</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -3281,7 +3281,7 @@
         <v>234</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -3301,7 +3301,7 @@
         <v>235</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>328</v>
+        <v>417</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -3321,7 +3321,7 @@
         <v>236</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>330</v>
+        <v>433</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -3341,7 +3341,7 @@
         <v>237</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -3361,7 +3361,7 @@
         <v>238</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>239</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -3401,7 +3401,7 @@
         <v>240</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -3418,10 +3418,10 @@
         <v>106</v>
       </c>
       <c r="D52" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -3441,7 +3441,7 @@
         <v>241</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -3481,7 +3481,7 @@
         <v>243</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         <v>244</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>337</v>
+        <v>431</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -3521,7 +3521,7 @@
         <v>245</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -3541,7 +3541,7 @@
         <v>246</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -3561,7 +3561,7 @@
         <v>247</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -3581,7 +3581,7 @@
         <v>248</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -3601,7 +3601,7 @@
         <v>249</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>342</v>
+        <v>430</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -3621,7 +3621,7 @@
         <v>250</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -3641,7 +3641,7 @@
         <v>251</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -3661,7 +3661,7 @@
         <v>252</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>396</v>
+        <v>435</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -3681,7 +3681,7 @@
         <v>253</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>345</v>
+        <v>426</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -3701,7 +3701,7 @@
         <v>254</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -3721,7 +3721,7 @@
         <v>255</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -3741,7 +3741,7 @@
         <v>256</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -3761,7 +3761,7 @@
         <v>257</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -3781,7 +3781,7 @@
         <v>258</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>350</v>
+        <v>427</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -3801,7 +3801,7 @@
         <v>259</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>351</v>
+        <v>420</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -3821,7 +3821,7 @@
         <v>260</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -3841,7 +3841,7 @@
         <v>261</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         <v>262</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -3881,7 +3881,7 @@
         <v>263</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>352</v>
+        <v>419</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -3901,7 +3901,7 @@
         <v>264</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -3921,7 +3921,7 @@
         <v>265</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -3941,7 +3941,7 @@
         <v>266</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -3961,7 +3961,7 @@
         <v>267</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -3981,7 +3981,7 @@
         <v>268</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -4001,7 +4001,7 @@
         <v>269</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -4021,7 +4021,7 @@
         <v>270</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -4041,7 +4041,7 @@
         <v>271</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>357</v>
+        <v>429</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -4061,7 +4061,7 @@
         <v>272</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>359</v>
+        <v>423</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -4081,7 +4081,7 @@
         <v>273</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>360</v>
+        <v>424</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -4101,7 +4101,7 @@
         <v>274</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>361</v>
+        <v>425</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -4121,7 +4121,7 @@
         <v>275</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -4141,7 +4141,7 @@
         <v>276</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -4161,7 +4161,7 @@
         <v>277</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -4181,7 +4181,7 @@
         <v>278</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -4201,7 +4201,7 @@
         <v>279</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         <v>280</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -4241,7 +4241,7 @@
         <v>281</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -4261,7 +4261,7 @@
         <v>282</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -4281,7 +4281,7 @@
         <v>283</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -4301,7 +4301,7 @@
         <v>284</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -4321,7 +4321,7 @@
         <v>285</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -4341,7 +4341,7 @@
         <v>286</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -4352,16 +4352,16 @@
         <v>200</v>
       </c>
       <c r="B99" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C99" t="s">
         <v>200</v>
       </c>
       <c r="D99" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -4412,16 +4412,16 @@
         <v>201</v>
       </c>
       <c r="B102" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="C102" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="D102" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -4432,16 +4432,16 @@
         <v>202</v>
       </c>
       <c r="B103" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="C103" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="D103" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -4452,16 +4452,16 @@
         <v>203</v>
       </c>
       <c r="B104" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="C104" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="D104" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -4472,16 +4472,16 @@
         <v>204</v>
       </c>
       <c r="B105" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="C105" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="D105" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -4492,13 +4492,13 @@
         <v>205</v>
       </c>
       <c r="B106" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="D106" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -4509,13 +4509,13 @@
         <v>206</v>
       </c>
       <c r="B107" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="D107" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -4526,13 +4526,13 @@
         <v>207</v>
       </c>
       <c r="B108" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="D108" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -4543,13 +4543,13 @@
         <v>208</v>
       </c>
       <c r="B109" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D109" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -4560,13 +4560,13 @@
         <v>209</v>
       </c>
       <c r="B110" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="D110" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -4577,13 +4577,13 @@
         <v>210</v>
       </c>
       <c r="B111" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="D111" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -4594,13 +4594,13 @@
         <v>211</v>
       </c>
       <c r="B112" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="D112" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -4611,13 +4611,13 @@
         <v>212</v>
       </c>
       <c r="B113" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="D113" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -4628,13 +4628,13 @@
         <v>213</v>
       </c>
       <c r="B114" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="D114" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="F114">
         <v>0</v>

--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="438">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2018,6 +2018,15 @@
 +[color=#D8D8D8] 25/35/40/45/50 [/color]攻击力
 +[color=#D8D8D8] 35/40/45/50/55 [/color]攻击速度
 +[color=#D8D8D8] 35% [/color]闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加血削弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#D8D8D8]被动:加血削弱 [/color]
+附近15米内的敌方单位的所有加血相关效果减弱25%/50%/75%/90%.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2371,10 +2380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4640,6 +4649,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="115" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>300</v>
+      </c>
+      <c r="B115" t="s">
+        <v>29</v>
+      </c>
+      <c r="C115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" t="s">
+        <v>436</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="444">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1873,12 +1873,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+[color=#D8D8D8] 24/34/38/43/48 [/color]攻击力
-[color=#D8D8D8]被动:连环闪电 [/color]
-攻击有25%的几率释放一道连环闪电，在9米内的4个目标之间跳跃，造成160点魔法伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+[color=#D8D8D8] 20/28/32/36/40 [/color]敏捷
 +[color=#D8D8D8] 10 [/color]智力
 [color=#D8D8D8]被动:破法 [/color]
@@ -1916,6 +1910,101 @@
 CD:35
 [color=#D8D8D8]被动:吸血 [/color]
 每次攻击根据造成的伤害回复25%的生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 10 [/color]力量
++[color=#D8D8D8] 24/34/38/43/48 [/color]攻击力
+[color=#D8D8D8]主动:天神下凡 [/color]
+获得技能免疫和100%的魔法抗性,持续7/7.5/8/8.5/9秒。
+CD：70
+弱驱散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 475/590/670/760/840 [/color]生命值
++[color=#D8D8D8] 425/540/620/710/790 [/color]魔法值
++[color=#D8D8D8] 10 [/color]生命恢复
++[color=#D8D8D8] 7/9/11/12/13[/color]魔法恢复
++[color=#D8D8D8] 200% [/color]魔法恢复速度
+[color=#D8D8D8]主动:血之契约 [/color]
+立即恢复最大魔法值20%/28%/32%/36%/40%的生命值
+CD：60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 25% [/color]闪避
++[color=#D8D8D8] 25 [/color]攻击力
++[color=#D8D8D8] 20/28/32/36/40 [/color]力量
++[color=#D8D8D8] 14% [/color]状态抗性
+[color=#D8D8D8]主动:缴械 [/color]
+阻止目标进行物理攻击,持续5/3秒(远程/近战)
+施法距离:6
+CD:18    耗蓝:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 10 [/color]敏捷
++[color=#D8D8D8] 10 [/color]力量
++[color=#D8D8D8] 40 [/color]智力
+[color=#D8D8D8]主动:虚化冲击 [/color]
+将目标变为虚化状态,受到魔法伤害增加40%,并且不能攻击和被攻击。持续4秒。
+如果目标为敌人则造成400/500/600/700/800的魔法伤害，并减速80%。
+施法距离:8米
+CD:20   耗蓝:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 13 [/color]生命恢复
++[color=#D8D8D8] 12 [/color]魔法恢复
+[color=#D8D8D8]主动:完全重置 [/color]
+重置所有物品和技能的CD
+CD:120/100/80/60/40    耗蓝:375</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 25/28/30/32/35 [/color]智力
++[color=#D8D8D8] 30/35/40/45/50 [/color]攻击速度
++[color=#D8D8D8] 30 [/color]攻击力
++[color=#D8D8D8] 5.5/6/7/8/9 [/color]魔法恢复
+[color=#D8D8D8]主动:灵魂燃烧 [/color]
+沉默目标5秒,伤害加深30%/42%/48%/54%/60%
+施法距离:9米
+CD:18    耗蓝:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 5/7/8/9/10 [/color]所有属性
++[color=#D8D8D8] 5/7/8/9/10 [/color]护甲
+[color=#D8D8D8]主动:回复 [/color]
+为12米内的友方单位回复275/385/440/495/550点生命值
+CD:25    耗蓝:100
+[color=#D8D8D8]被动:梅肯斯姆光环 [/color]
+为12米内的友方单位提供2点护甲,3.5点/每秒的生命恢复速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 15% [/color]移动速度
++[color=#D8D8D8] 250/350/400/450/500 [/color]魔法
+[color=#D8D8D8]主动:补魔 [/color]
+立即恢复12米内的友方单位160魔法
+CD:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 35/45/50/55/60 [/color]敏捷
++[color=#D8D8D8] 25/35/40/45/50 [/color]攻击力
++[color=#D8D8D8] 35/40/45/50/55 [/color]攻击速度
++[color=#D8D8D8] 35% [/color]闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加血削弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#D8D8D8]被动:加血削弱 [/color]
+附近15米内的敌方单位的所有加血相关效果减弱25%/50%/75%/90%.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1929,104 +2018,46 @@
 [color=#D8D8D8]被动:伤害格挡 [/color]
 有50%的几率格挡伤害,近战英雄格挡70点伤害,远程英雄格挡35点伤害。
 [color=#D8D8D8]主动:强击 [/color]
-击晕一个目标,持续2秒
-施法距离:2米
+闪烁到一个目标附近并击晕此目标,持续2秒
+施法距离:6米
 CD:35   耗蓝:75</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+[color=#D8D8D8] 10 [/color]力量
-+[color=#D8D8D8] 24/34/38/43/48 [/color]攻击力
-[color=#D8D8D8]主动:天神下凡 [/color]
-获得技能免疫和100%的魔法抗性,持续7/7.5/8/8.5/9秒。
-CD：70
-弱驱散</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 475/590/670/760/840 [/color]生命值
-+[color=#D8D8D8] 425/540/620/710/790 [/color]魔法值
-+[color=#D8D8D8] 10 [/color]生命恢复
-+[color=#D8D8D8] 7/9/11/12/13[/color]魔法恢复
-+[color=#D8D8D8] 200% [/color]魔法恢复速度
-[color=#D8D8D8]主动:血之契约 [/color]
-立即恢复最大魔法值20%/28%/32%/36%/40%的生命值
-CD：60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 25% [/color]闪避
-+[color=#D8D8D8] 25 [/color]攻击力
-+[color=#D8D8D8] 20/28/32/36/40 [/color]力量
-+[color=#D8D8D8] 14% [/color]状态抗性
-[color=#D8D8D8]主动:缴械 [/color]
-阻止目标进行物理攻击,持续5/3秒(远程/近战)
-施法距离:6
-CD:18    耗蓝:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 10 [/color]敏捷
-+[color=#D8D8D8] 10 [/color]力量
-+[color=#D8D8D8] 40 [/color]智力
-[color=#D8D8D8]主动:虚化冲击 [/color]
-将目标变为虚化状态,受到魔法伤害增加40%,并且不能攻击和被攻击。持续4秒。
-如果目标为敌人则造成400/500/600/700/800的魔法伤害，并减速80%。
-施法距离:8米
-CD:20   耗蓝:100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 13 [/color]生命恢复
-+[color=#D8D8D8] 12 [/color]魔法恢复
-[color=#D8D8D8]主动:完全重置 [/color]
-重置所有物品和技能的CD
-CD:120/100/80/60/40    耗蓝:375</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 25/28/30/32/35 [/color]智力
-+[color=#D8D8D8] 30/35/40/45/50 [/color]攻击速度
-+[color=#D8D8D8] 30 [/color]攻击力
-+[color=#D8D8D8] 5.5/6/7/8/9 [/color]魔法恢复
-[color=#D8D8D8]主动:灵魂燃烧 [/color]
-沉默目标5秒,伤害加深30%/42%/48%/54%/60%
-施法距离:9米
-CD:18    耗蓝:100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 5/7/8/9/10 [/color]所有属性
-+[color=#D8D8D8] 5/7/8/9/10 [/color]护甲
-[color=#D8D8D8]主动:回复 [/color]
-为12米内的友方单位回复275/385/440/495/550点生命值
-CD:25    耗蓝:100
-[color=#D8D8D8]被动:梅肯斯姆光环 [/color]
-为12米内的友方单位提供2点护甲,3.5点/每秒的生命恢复速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 15% [/color]移动速度
-+[color=#D8D8D8] 250/350/400/450/500 [/color]魔法
-[color=#D8D8D8]主动:补魔 [/color]
-立即恢复12米内的友方单位160魔法
-CD:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+[color=#D8D8D8] 35/45/50/55/60 [/color]敏捷
-+[color=#D8D8D8] 25/35/40/45/50 [/color]攻击力
-+[color=#D8D8D8] 35/40/45/50/55 [/color]攻击速度
-+[color=#D8D8D8] 35% [/color]闪避</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加血削弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[color=#D8D8D8]被动:加血削弱 [/color]
-附近15米内的敌方单位的所有加血相关效果减弱25%/50%/75%/90%.</t>
+    <t>[color=#D8D8D8]被动:灼烧 [/color]
+每秒对敌人造成60/70/80/90/100点伤害,并且物理攻击有17%的几率不会命中。
++[color=#D8D8D8] 60/80/90/100/110 [/color]攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 24/34/38/43/48 [/color]攻击力
+[color=#D8D8D8]被动:连环闪电 [/color]
+攻击有25%的几率释放一道连环闪电，在9米内的4个目标之间跳跃，造成140点魔法伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大电锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 24/34/38/43/48 [/color]攻击力
++[color=#D8D8D8] 65/80/90/100/110 [/color]攻击速度
+[color=#D8D8D8]被动:连环闪电 [/color]
+攻击时有25%的几率释放一道连环闪电，在9米内的12个目标之间跳跃，造成170/200/230/260/300点魔法伤害
+[color=#D8D8D8]被动:静电 [/color]
+被攻击有20%的几率释放一道连环闪电，在9米内的4个目标之间跳跃，造成200/230/260/290/350点魔法伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉耀刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/辉耀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/雷神之锤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2380,10 +2411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E133" sqref="E133"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3270,7 +3301,7 @@
         <v>233</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -3330,7 +3361,7 @@
         <v>236</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -3490,7 +3521,7 @@
         <v>243</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -3510,7 +3541,7 @@
         <v>244</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -3610,7 +3641,7 @@
         <v>249</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -3670,7 +3701,7 @@
         <v>252</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -3690,7 +3721,7 @@
         <v>253</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -3790,7 +3821,7 @@
         <v>258</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -3850,7 +3881,7 @@
         <v>261</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -3990,7 +4021,7 @@
         <v>268</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -4010,7 +4041,7 @@
         <v>269</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -4050,7 +4081,7 @@
         <v>271</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -4070,7 +4101,7 @@
         <v>272</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -4090,7 +4121,7 @@
         <v>273</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -4110,7 +4141,7 @@
         <v>274</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -4660,12 +4691,46 @@
         <v>28</v>
       </c>
       <c r="D115" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E115" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>100</v>
+      </c>
+      <c r="B116" t="s">
+        <v>442</v>
+      </c>
+      <c r="D116" t="s">
+        <v>441</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="F115">
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="108" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>101</v>
+      </c>
+      <c r="B117" t="s">
+        <v>443</v>
+      </c>
+      <c r="D117" t="s">
+        <v>439</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F117">
         <v>1</v>
       </c>
     </row>

--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -1913,15 +1913,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+[color=#D8D8D8] 10 [/color]力量
-+[color=#D8D8D8] 24/34/38/43/48 [/color]攻击力
-[color=#D8D8D8]主动:天神下凡 [/color]
-获得技能免疫和100%的魔法抗性,持续7/7.5/8/8.5/9秒。
-CD：70
-弱驱散</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+[color=#D8D8D8] 475/590/670/760/840 [/color]生命值
 +[color=#D8D8D8] 425/540/620/710/790 [/color]魔法值
 +[color=#D8D8D8] 10 [/color]生命恢复
@@ -2058,6 +2049,15 @@
   </si>
   <si>
     <t>ui://GameUI/雷神之锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 10 [/color]力量
++[color=#D8D8D8] 24/34/38/43/48 [/color]攻击力
+[color=#D8D8D8]主动:天神下凡 [/color]
+清除大部分负面效果,并获得技能免疫和100%的魔法抗性,持续7/7.5/8/8.5/9秒。
+CD：70
+弱驱散</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2413,8 +2413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3301,7 +3301,7 @@
         <v>233</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -3361,7 +3361,7 @@
         <v>236</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -3521,7 +3521,7 @@
         <v>243</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -3541,7 +3541,7 @@
         <v>244</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -3641,7 +3641,7 @@
         <v>249</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -3701,7 +3701,7 @@
         <v>252</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -3721,7 +3721,7 @@
         <v>253</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -3821,7 +3821,7 @@
         <v>258</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -3881,7 +3881,7 @@
         <v>261</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -4021,7 +4021,7 @@
         <v>268</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -4081,7 +4081,7 @@
         <v>271</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -4691,10 +4691,10 @@
         <v>28</v>
       </c>
       <c r="D115" t="s">
+        <v>433</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -4705,13 +4705,13 @@
         <v>100</v>
       </c>
       <c r="B116" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D116" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -4722,13 +4722,13 @@
         <v>101</v>
       </c>
       <c r="B117" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D117" t="s">
+        <v>438</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="F117">
         <v>1</v>

--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="450">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2058,6 +2058,30 @@
 清除大部分负面效果,并获得技能免疫和100%的魔法抗性,持续7/7.5/8/8.5/9秒。
 CD：70
 弱驱散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级奥数瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/初级奥数瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级奥数瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/高级奥数瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后直接增加奥数点5/10/20/40/60。[color=#ff2222]5级才能出售[/color]。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后直接增加奥数点50/100/200/400/600。[color=#ff2222]5级才能出售[/color]。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2411,10 +2435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4734,6 +4758,40 @@
         <v>1</v>
       </c>
     </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>214</v>
+      </c>
+      <c r="B118" t="s">
+        <v>445</v>
+      </c>
+      <c r="D118" t="s">
+        <v>444</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <v>215</v>
+      </c>
+      <c r="B119" t="s">
+        <v>447</v>
+      </c>
+      <c r="D119" t="s">
+        <v>446</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -1873,17 +1873,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+[color=#D8D8D8] 20/28/32/36/40 [/color]敏捷
-+[color=#D8D8D8] 10 [/color]智力
-[color=#D8D8D8]被动:破法 [/color]
-每次攻击燃烧目标50点魔法值,每燃烧一点魔法值都将造成0.8点物理伤害,对boss无效
-[color=#D8D8D8]主动:阻止 [/color]
-减缓目标移动速度50%,持续4秒
-施法距离:6米
-CD:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+[color=#D8D8D8] 16/22/26/29/32 [/color]力量
 +[color=#D8D8D8] 16/22/26/29/32 [/color]敏捷
 +[color=#D8D8D8] 16% [/color]状态抗性
@@ -2082,6 +2071,17 @@
   </si>
   <si>
     <t>使用后直接增加奥数点50/100/200/400/600。[color=#ff2222]5级才能出售[/color]。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+[color=#D8D8D8] 20/28/32/36/40 [/color]敏捷
++[color=#D8D8D8] 10 [/color]智力
+[color=#D8D8D8]被动:破法 [/color]
+每次攻击燃烧目标10点魔法值,每燃烧一点魔法值都将造成4点物理伤害,对boss无效
+[color=#D8D8D8]主动:阻止 [/color]
+减缓目标移动速度50%,持续4秒
+施法距离:6米
+CD:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2437,8 +2437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3325,7 +3325,7 @@
         <v>233</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -3385,7 +3385,7 @@
         <v>236</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -3545,7 +3545,7 @@
         <v>243</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -3565,7 +3565,7 @@
         <v>244</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -3665,7 +3665,7 @@
         <v>249</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -3725,7 +3725,7 @@
         <v>252</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -3745,7 +3745,7 @@
         <v>253</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -3845,7 +3845,7 @@
         <v>258</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -3905,7 +3905,7 @@
         <v>261</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -4045,7 +4045,7 @@
         <v>268</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -4065,7 +4065,7 @@
         <v>269</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -4105,7 +4105,7 @@
         <v>271</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -4125,7 +4125,7 @@
         <v>272</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -4145,7 +4145,7 @@
         <v>273</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -4165,7 +4165,7 @@
         <v>274</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -4715,10 +4715,10 @@
         <v>28</v>
       </c>
       <c r="D115" t="s">
+        <v>432</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -4729,13 +4729,13 @@
         <v>100</v>
       </c>
       <c r="B116" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -4746,13 +4746,13 @@
         <v>101</v>
       </c>
       <c r="B117" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D117" t="s">
+        <v>437</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -4763,13 +4763,13 @@
         <v>214</v>
       </c>
       <c r="B118" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D118" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -4780,13 +4780,13 @@
         <v>215</v>
       </c>
       <c r="B119" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D119" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F119">
         <v>1</v>

--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -1811,10 +1811,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用后增加竞技场经验50/100/200/400/800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+[color=#D8D8D8] 250/350/400/450/500 [/color]生命值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2082,6 +2078,10 @@
 减缓目标移动速度50%,持续4秒
 施法距离:6米
 CD:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后增加竞技场经验5/10/20/40/80</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2437,8 +2437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3045,7 +3045,7 @@
         <v>61</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -3325,7 +3325,7 @@
         <v>233</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -3365,7 +3365,7 @@
         <v>235</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -3385,7 +3385,7 @@
         <v>236</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -3545,7 +3545,7 @@
         <v>243</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -3565,7 +3565,7 @@
         <v>244</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -3665,7 +3665,7 @@
         <v>249</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -3725,7 +3725,7 @@
         <v>252</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -3745,7 +3745,7 @@
         <v>253</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -3845,7 +3845,7 @@
         <v>258</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -3865,7 +3865,7 @@
         <v>259</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -3905,7 +3905,7 @@
         <v>261</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -3925,7 +3925,7 @@
         <v>262</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -3945,7 +3945,7 @@
         <v>263</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -4045,7 +4045,7 @@
         <v>268</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -4065,7 +4065,7 @@
         <v>269</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -4105,7 +4105,7 @@
         <v>271</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -4125,7 +4125,7 @@
         <v>272</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -4145,7 +4145,7 @@
         <v>273</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -4165,7 +4165,7 @@
         <v>274</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -4405,7 +4405,7 @@
         <v>286</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -4596,7 +4596,7 @@
         <v>399</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -4681,7 +4681,7 @@
         <v>409</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>410</v>
+        <v>449</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -4692,13 +4692,13 @@
         <v>213</v>
       </c>
       <c r="B114" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D114" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -4715,10 +4715,10 @@
         <v>28</v>
       </c>
       <c r="D115" t="s">
+        <v>431</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -4729,13 +4729,13 @@
         <v>100</v>
       </c>
       <c r="B116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -4746,13 +4746,13 @@
         <v>101</v>
       </c>
       <c r="B117" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D117" t="s">
+        <v>436</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>438</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -4763,13 +4763,13 @@
         <v>214</v>
       </c>
       <c r="B118" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D118" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -4780,13 +4780,13 @@
         <v>215</v>
       </c>
       <c r="B119" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D119" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F119">
         <v>1</v>

--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -2438,7 +2438,7 @@
   <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="452">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2082,6 +2082,14 @@
   </si>
   <si>
     <t>使用后增加竞技场经验5/10/20/40/80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砖矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得材料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2435,10 +2443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4792,6 +4800,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>216</v>
+      </c>
+      <c r="B120" t="s">
+        <v>445</v>
+      </c>
+      <c r="D120" t="s">
+        <v>450</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/client_item.xlsx
+++ b/Excel/client_item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="455">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1812,11 +1812,6 @@
   </si>
   <si>
     <t>+[color=#D8D8D8] 250/350/400/450/500 [/color]生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用后直接增加经验3000/6000/12000/24000/25000,但不会超过今日可获取剩余经验。
-使用前请确保有足够的今日可获取剩余经验,[color=#ff2222]5级才能出售[/color]。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2090,6 +2085,23 @@
   </si>
   <si>
     <t>获得材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后直接增加经验3000/6000/12000/24000/25000。[color=#ff2222]5级才能出售[/color]。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/novedio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免视频砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵消一次看视频广告,在所有观看视频得时候自动使用,可以不用真实观看视频而获得看视频后的奖励(包括视频排行奖励).
+在资源界面查看剩余次数(点击血条下面的金币图标进入该界面)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2443,10 +2455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2454,7 +2466,7 @@
     <col min="2" max="2" width="39.75" customWidth="1"/>
     <col min="3" max="3" width="29.625" customWidth="1"/>
     <col min="4" max="4" width="24.375" customWidth="1"/>
-    <col min="5" max="5" width="89.875" customWidth="1"/>
+    <col min="5" max="5" width="95.5" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="9" max="9" width="48.5" customWidth="1"/>
   </cols>
@@ -3053,7 +3065,7 @@
         <v>61</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -3333,7 +3345,7 @@
         <v>233</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -3373,7 +3385,7 @@
         <v>235</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -3393,7 +3405,7 @@
         <v>236</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -3553,7 +3565,7 @@
         <v>243</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -3573,7 +3585,7 @@
         <v>244</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -3673,7 +3685,7 @@
         <v>249</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -3733,7 +3745,7 @@
         <v>252</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -3753,7 +3765,7 @@
         <v>253</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -3853,7 +3865,7 @@
         <v>258</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -3873,7 +3885,7 @@
         <v>259</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -3913,7 +3925,7 @@
         <v>261</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -3933,7 +3945,7 @@
         <v>262</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -3953,7 +3965,7 @@
         <v>263</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -4053,7 +4065,7 @@
         <v>268</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -4073,7 +4085,7 @@
         <v>269</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -4113,7 +4125,7 @@
         <v>271</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -4133,7 +4145,7 @@
         <v>272</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -4153,7 +4165,7 @@
         <v>273</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -4173,7 +4185,7 @@
         <v>274</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -4479,38 +4491,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A102">
-        <v>201</v>
+        <v>10002</v>
       </c>
       <c r="B102" t="s">
-        <v>387</v>
+        <v>452</v>
       </c>
       <c r="C102" t="s">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="D102" t="s">
-        <v>381</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>382</v>
+        <v>453</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>454</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B103" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C103" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D103" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>382</v>
@@ -4521,16 +4533,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B104" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C104" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D104" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>382</v>
@@ -4541,16 +4553,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B105" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C105" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D105" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>382</v>
@@ -4561,16 +4573,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B106" t="s">
-        <v>396</v>
+        <v>385</v>
+      </c>
+      <c r="C106" t="s">
+        <v>391</v>
       </c>
       <c r="D106" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -4578,33 +4593,33 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107">
+        <v>205</v>
+      </c>
+      <c r="B107" t="s">
+        <v>396</v>
+      </c>
+      <c r="D107" t="s">
+        <v>395</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108">
         <v>206</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>398</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D108" t="s">
         <v>397</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="F107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A108">
-        <v>207</v>
-      </c>
-      <c r="B108" t="s">
-        <v>400</v>
-      </c>
-      <c r="D108" t="s">
-        <v>399</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -4612,30 +4627,30 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B109" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D109" t="s">
-        <v>401</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>375</v>
+        <v>399</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>451</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B110" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D110" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>375</v>
@@ -4646,13 +4661,13 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B111" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D111" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>375</v>
@@ -4663,13 +4678,13 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B112" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D112" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>375</v>
@@ -4680,104 +4695,104 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B113" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D113" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>449</v>
+        <v>375</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114">
+        <v>212</v>
+      </c>
+      <c r="B114" t="s">
+        <v>398</v>
+      </c>
+      <c r="D114" t="s">
+        <v>409</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A115">
         <v>213</v>
       </c>
-      <c r="B114" t="s">
-        <v>414</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="B115" t="s">
         <v>413</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="D115" t="s">
         <v>412</v>
       </c>
-      <c r="F114">
+      <c r="E115" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F115">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A115">
+    <row r="116" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A116">
         <v>300</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>29</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C116" t="s">
         <v>28</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D116" t="s">
+        <v>430</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="F115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A116">
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A117">
         <v>100</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
+        <v>438</v>
+      </c>
+      <c r="D117" t="s">
+        <v>437</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>101</v>
+      </c>
+      <c r="B118" t="s">
         <v>439</v>
       </c>
-      <c r="D116" t="s">
-        <v>438</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="108" x14ac:dyDescent="0.15">
-      <c r="A117">
-        <v>101</v>
-      </c>
-      <c r="B117" t="s">
-        <v>440</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="D118" t="s">
+        <v>435</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="F117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A118">
-        <v>214</v>
-      </c>
-      <c r="B118" t="s">
-        <v>443</v>
-      </c>
-      <c r="D118" t="s">
-        <v>442</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -4785,16 +4800,16 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B119" t="s">
+        <v>442</v>
+      </c>
+      <c r="D119" t="s">
+        <v>441</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="D119" t="s">
-        <v>444</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -4802,18 +4817,35 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120">
+        <v>215</v>
+      </c>
+      <c r="B120" t="s">
+        <v>444</v>
+      </c>
+      <c r="D120" t="s">
+        <v>443</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A121">
         <v>216</v>
       </c>
-      <c r="B120" t="s">
-        <v>445</v>
-      </c>
-      <c r="D120" t="s">
+      <c r="B121" t="s">
+        <v>444</v>
+      </c>
+      <c r="D121" t="s">
+        <v>449</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="F120">
+      <c r="F121">
         <v>0</v>
       </c>
     </row>
